--- a/downloads/sample.xlsx
+++ b/downloads/sample.xlsx
@@ -15,20 +15,7 @@
   <definedNames>
     <definedName name="_1KB">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -196,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -638,7 +625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="122">
+  <borders count="125">
     <border>
       <left/>
       <right/>
@@ -993,6 +980,43 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1100,17 +1124,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1386,6 +1399,19 @@
       <left style="hair">
         <color auto="1"/>
       </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -1589,6 +1615,45 @@
       <left style="hair">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1680,32 +1745,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -1806,6 +1845,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -1884,19 +1936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -2026,19 +2065,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -2205,7 +2231,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="114" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="117" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2217,34 +2243,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="115" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="118" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="115" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="118" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="116" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="119" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="117" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="120" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="118" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="121" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="117" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="120" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="119" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="120" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="123" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="121" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="124" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2335,7 +2361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2457,124 +2483,139 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2583,255 +2624,294 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="52" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="54" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="36" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="39" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="52" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="53" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="44" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="82" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="42" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="88" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="50" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="51" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="42" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="76" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="84" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="85" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2841,7 +2921,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2850,7 +2930,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="87" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="91" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2859,19 +2939,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="88" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="92" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="89" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="93" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2883,205 +2963,217 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="90" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="92" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="93" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="98" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="94" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="99" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="95" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="100" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="101" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="93" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="97" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="102" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="98" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="103" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="100" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="101" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="104" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="105" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="102" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="103" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="104" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="105" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="106" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="107" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="108" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="110" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="107" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="111" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="108" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="112" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="99" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="103" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="110" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="111" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="112" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="113" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="114" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="115" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="110" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="113" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="99" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="116" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="103" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6157,10 +6249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CL41"/>
+  <dimension ref="A1:CL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BY13" sqref="BY13:CL13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.14285714285714" defaultRowHeight="15"/>
@@ -6291,64 +6383,64 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="122" t="s">
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="122"/>
-      <c r="BK2" s="122"/>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="122"/>
-      <c r="BO2" s="122"/>
-      <c r="BP2" s="122"/>
-      <c r="BQ2" s="122"/>
-      <c r="BR2" s="122"/>
-      <c r="BS2" s="122"/>
-      <c r="BT2" s="122"/>
-      <c r="BU2" s="122"/>
-      <c r="BV2" s="122"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="136"/>
+      <c r="BR2" s="136"/>
+      <c r="BS2" s="136"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="136"/>
+      <c r="BV2" s="136"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
@@ -6416,82 +6508,82 @@
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:M38,12,0))</f>
         <v/>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="87"/>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="87"/>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="154"/>
-      <c r="AX3" s="155" t="s">
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="95"/>
+      <c r="AR3" s="95"/>
+      <c r="AS3" s="95"/>
+      <c r="AT3" s="95"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="172"/>
+      <c r="AX3" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="87"/>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="87"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="87"/>
-      <c r="BE3" s="87"/>
-      <c r="BF3" s="87"/>
-      <c r="BG3" s="87"/>
-      <c r="BH3" s="87"/>
-      <c r="BI3" s="87"/>
-      <c r="BJ3" s="87"/>
-      <c r="BK3" s="87"/>
-      <c r="BL3" s="87"/>
-      <c r="BM3" s="87"/>
-      <c r="BN3" s="87"/>
-      <c r="BO3" s="87"/>
-      <c r="BP3" s="87"/>
-      <c r="BQ3" s="87"/>
-      <c r="BR3" s="87"/>
-      <c r="BS3" s="87"/>
-      <c r="BT3" s="87"/>
-      <c r="BU3" s="87"/>
-      <c r="BV3" s="87"/>
-      <c r="BW3" s="87"/>
-      <c r="BX3" s="87"/>
-      <c r="BY3" s="87"/>
-      <c r="BZ3" s="87"/>
-      <c r="CA3" s="154"/>
-      <c r="CB3" s="190"/>
-      <c r="CC3" s="190"/>
-      <c r="CD3" s="190"/>
-      <c r="CE3" s="190"/>
-      <c r="CF3" s="190"/>
-      <c r="CG3" s="190"/>
-      <c r="CH3" s="190"/>
-      <c r="CI3" s="190"/>
-      <c r="CJ3" s="190"/>
-      <c r="CK3" s="230"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="95"/>
+      <c r="BC3" s="95"/>
+      <c r="BD3" s="95"/>
+      <c r="BE3" s="95"/>
+      <c r="BF3" s="95"/>
+      <c r="BG3" s="95"/>
+      <c r="BH3" s="95"/>
+      <c r="BI3" s="95"/>
+      <c r="BJ3" s="95"/>
+      <c r="BK3" s="95"/>
+      <c r="BL3" s="95"/>
+      <c r="BM3" s="95"/>
+      <c r="BN3" s="95"/>
+      <c r="BO3" s="95"/>
+      <c r="BP3" s="95"/>
+      <c r="BQ3" s="95"/>
+      <c r="BR3" s="95"/>
+      <c r="BS3" s="95"/>
+      <c r="BT3" s="95"/>
+      <c r="BU3" s="95"/>
+      <c r="BV3" s="95"/>
+      <c r="BW3" s="95"/>
+      <c r="BX3" s="95"/>
+      <c r="BY3" s="95"/>
+      <c r="BZ3" s="95"/>
+      <c r="CA3" s="172"/>
+      <c r="CB3" s="209"/>
+      <c r="CC3" s="209"/>
+      <c r="CD3" s="209"/>
+      <c r="CE3" s="209"/>
+      <c r="CF3" s="209"/>
+      <c r="CG3" s="209"/>
+      <c r="CH3" s="209"/>
+      <c r="CI3" s="209"/>
+      <c r="CJ3" s="209"/>
+      <c r="CK3" s="251"/>
       <c r="CL3" s="1"/>
     </row>
     <row r="4" spans="1:90">
@@ -6512,78 +6604,78 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="156"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="89"/>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="89"/>
-      <c r="BM4" s="89"/>
-      <c r="BN4" s="89"/>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="89"/>
-      <c r="BR4" s="89"/>
-      <c r="BS4" s="89"/>
-      <c r="BT4" s="89"/>
-      <c r="BU4" s="89"/>
-      <c r="BV4" s="89"/>
-      <c r="BW4" s="89"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="89"/>
-      <c r="BZ4" s="89"/>
-      <c r="CA4" s="156"/>
-      <c r="CB4" s="191"/>
-      <c r="CC4" s="191"/>
-      <c r="CD4" s="191"/>
-      <c r="CE4" s="191"/>
-      <c r="CF4" s="191"/>
-      <c r="CG4" s="191"/>
-      <c r="CH4" s="191"/>
-      <c r="CI4" s="191"/>
-      <c r="CJ4" s="191"/>
-      <c r="CK4" s="231"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="174"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="97"/>
+      <c r="BM4" s="97"/>
+      <c r="BN4" s="97"/>
+      <c r="BO4" s="97"/>
+      <c r="BP4" s="97"/>
+      <c r="BQ4" s="97"/>
+      <c r="BR4" s="97"/>
+      <c r="BS4" s="97"/>
+      <c r="BT4" s="97"/>
+      <c r="BU4" s="97"/>
+      <c r="BV4" s="97"/>
+      <c r="BW4" s="97"/>
+      <c r="BX4" s="97"/>
+      <c r="BY4" s="97"/>
+      <c r="BZ4" s="97"/>
+      <c r="CA4" s="174"/>
+      <c r="CB4" s="210"/>
+      <c r="CC4" s="210"/>
+      <c r="CD4" s="210"/>
+      <c r="CE4" s="210"/>
+      <c r="CF4" s="210"/>
+      <c r="CG4" s="210"/>
+      <c r="CH4" s="210"/>
+      <c r="CI4" s="210"/>
+      <c r="CJ4" s="210"/>
+      <c r="CK4" s="252"/>
       <c r="CL4" s="1"/>
     </row>
     <row r="5" spans="1:90">
@@ -6597,103 +6689,103 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
       <c r="T5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="Z5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
       <c r="AF5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
       <c r="AL5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
       <c r="AR5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="157" t="s">
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="158"/>
-      <c r="AZ5" s="158"/>
-      <c r="BA5" s="158"/>
-      <c r="BB5" s="158"/>
-      <c r="BC5" s="158"/>
-      <c r="BD5" s="158"/>
-      <c r="BE5" s="158"/>
-      <c r="BF5" s="158"/>
-      <c r="BG5" s="168"/>
-      <c r="BH5" s="169" t="s">
+      <c r="AY5" s="176"/>
+      <c r="AZ5" s="176"/>
+      <c r="BA5" s="176"/>
+      <c r="BB5" s="176"/>
+      <c r="BC5" s="176"/>
+      <c r="BD5" s="176"/>
+      <c r="BE5" s="176"/>
+      <c r="BF5" s="176"/>
+      <c r="BG5" s="186"/>
+      <c r="BH5" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="BI5" s="170"/>
-      <c r="BJ5" s="170"/>
-      <c r="BK5" s="170"/>
-      <c r="BL5" s="170"/>
-      <c r="BM5" s="170"/>
-      <c r="BN5" s="170"/>
-      <c r="BO5" s="170"/>
-      <c r="BP5" s="170"/>
-      <c r="BQ5" s="170"/>
-      <c r="BR5" s="170"/>
-      <c r="BS5" s="170"/>
-      <c r="BT5" s="170"/>
-      <c r="BU5" s="170"/>
-      <c r="BV5" s="170"/>
-      <c r="BW5" s="170"/>
-      <c r="BX5" s="170"/>
-      <c r="BY5" s="170"/>
-      <c r="BZ5" s="170"/>
-      <c r="CA5" s="170"/>
-      <c r="CB5" s="170"/>
-      <c r="CC5" s="170"/>
-      <c r="CD5" s="170"/>
-      <c r="CE5" s="170"/>
-      <c r="CF5" s="170"/>
-      <c r="CG5" s="170"/>
-      <c r="CH5" s="170"/>
-      <c r="CI5" s="170"/>
-      <c r="CJ5" s="170"/>
-      <c r="CK5" s="232"/>
+      <c r="BI5" s="188"/>
+      <c r="BJ5" s="188"/>
+      <c r="BK5" s="188"/>
+      <c r="BL5" s="188"/>
+      <c r="BM5" s="188"/>
+      <c r="BN5" s="188"/>
+      <c r="BO5" s="188"/>
+      <c r="BP5" s="188"/>
+      <c r="BQ5" s="188"/>
+      <c r="BR5" s="188"/>
+      <c r="BS5" s="188"/>
+      <c r="BT5" s="188"/>
+      <c r="BU5" s="188"/>
+      <c r="BV5" s="188"/>
+      <c r="BW5" s="188"/>
+      <c r="BX5" s="188"/>
+      <c r="BY5" s="188"/>
+      <c r="BZ5" s="188"/>
+      <c r="CA5" s="188"/>
+      <c r="CB5" s="188"/>
+      <c r="CC5" s="188"/>
+      <c r="CD5" s="188"/>
+      <c r="CE5" s="188"/>
+      <c r="CF5" s="188"/>
+      <c r="CG5" s="188"/>
+      <c r="CH5" s="188"/>
+      <c r="CI5" s="188"/>
+      <c r="CJ5" s="188"/>
+      <c r="CK5" s="253"/>
       <c r="CL5" s="1"/>
     </row>
     <row r="6" ht="15.75" spans="1:90">
@@ -6707,105 +6799,105 @@
       <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52" t="str">
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,13,0))</f>
         <v/>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="52" t="str">
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="57" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,14,0))</f>
         <v/>
       </c>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="52" t="str">
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="57" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,15,0))</f>
         <v/>
       </c>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="90" t="str">
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="98" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,16,0))</f>
         <v/>
       </c>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="125" t="str">
+      <c r="AG6" s="137"/>
+      <c r="AH6" s="137"/>
+      <c r="AI6" s="137"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="138"/>
+      <c r="AL6" s="139" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,17,0))</f>
         <v/>
       </c>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123"/>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="124"/>
-      <c r="AR6" s="125" t="str">
+      <c r="AM6" s="137"/>
+      <c r="AN6" s="137"/>
+      <c r="AO6" s="137"/>
+      <c r="AP6" s="137"/>
+      <c r="AQ6" s="138"/>
+      <c r="AR6" s="139" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,18,0))</f>
         <v/>
       </c>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123"/>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="124"/>
-      <c r="AX6" s="159"/>
-      <c r="AY6" s="142"/>
-      <c r="AZ6" s="142"/>
-      <c r="BA6" s="142"/>
-      <c r="BB6" s="142"/>
-      <c r="BC6" s="142"/>
-      <c r="BD6" s="142"/>
-      <c r="BE6" s="142"/>
-      <c r="BF6" s="142"/>
-      <c r="BG6" s="171"/>
-      <c r="BH6" s="172"/>
-      <c r="BI6" s="173"/>
-      <c r="BJ6" s="173"/>
-      <c r="BK6" s="173"/>
-      <c r="BL6" s="173"/>
-      <c r="BM6" s="173"/>
-      <c r="BN6" s="173"/>
-      <c r="BO6" s="173"/>
-      <c r="BP6" s="173"/>
-      <c r="BQ6" s="173"/>
-      <c r="BR6" s="173"/>
-      <c r="BS6" s="173"/>
-      <c r="BT6" s="173"/>
-      <c r="BU6" s="173"/>
-      <c r="BV6" s="173"/>
-      <c r="BW6" s="173"/>
-      <c r="BX6" s="173"/>
-      <c r="BY6" s="173"/>
-      <c r="BZ6" s="173"/>
-      <c r="CA6" s="173"/>
-      <c r="CB6" s="173"/>
-      <c r="CC6" s="173"/>
-      <c r="CD6" s="173"/>
-      <c r="CE6" s="173"/>
-      <c r="CF6" s="173"/>
-      <c r="CG6" s="173"/>
-      <c r="CH6" s="173"/>
-      <c r="CI6" s="173"/>
-      <c r="CJ6" s="173"/>
-      <c r="CK6" s="233"/>
+      <c r="AS6" s="137"/>
+      <c r="AT6" s="137"/>
+      <c r="AU6" s="137"/>
+      <c r="AV6" s="137"/>
+      <c r="AW6" s="138"/>
+      <c r="AX6" s="177"/>
+      <c r="AY6" s="160"/>
+      <c r="AZ6" s="160"/>
+      <c r="BA6" s="160"/>
+      <c r="BB6" s="160"/>
+      <c r="BC6" s="160"/>
+      <c r="BD6" s="160"/>
+      <c r="BE6" s="160"/>
+      <c r="BF6" s="160"/>
+      <c r="BG6" s="189"/>
+      <c r="BH6" s="190"/>
+      <c r="BI6" s="191"/>
+      <c r="BJ6" s="191"/>
+      <c r="BK6" s="191"/>
+      <c r="BL6" s="191"/>
+      <c r="BM6" s="191"/>
+      <c r="BN6" s="191"/>
+      <c r="BO6" s="191"/>
+      <c r="BP6" s="191"/>
+      <c r="BQ6" s="191"/>
+      <c r="BR6" s="191"/>
+      <c r="BS6" s="191"/>
+      <c r="BT6" s="191"/>
+      <c r="BU6" s="191"/>
+      <c r="BV6" s="191"/>
+      <c r="BW6" s="191"/>
+      <c r="BX6" s="191"/>
+      <c r="BY6" s="191"/>
+      <c r="BZ6" s="191"/>
+      <c r="CA6" s="191"/>
+      <c r="CB6" s="191"/>
+      <c r="CC6" s="191"/>
+      <c r="CD6" s="191"/>
+      <c r="CE6" s="191"/>
+      <c r="CF6" s="191"/>
+      <c r="CG6" s="191"/>
+      <c r="CH6" s="191"/>
+      <c r="CI6" s="191"/>
+      <c r="CJ6" s="191"/>
+      <c r="CK6" s="254"/>
       <c r="CL6" s="1"/>
     </row>
     <row r="7" ht="15.75" spans="1:90">
@@ -6819,108 +6911,108 @@
       <c r="H7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55" t="str">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="60" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,19,0))</f>
         <v/>
       </c>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75" t="str">
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="80" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,20,0))</f>
         <v/>
       </c>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="75" t="str">
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="80" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,21,0))</f>
         <v/>
       </c>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="92" t="str">
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="100" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,22,0))</f>
         <v/>
       </c>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="92" t="str">
+      <c r="AG7" s="140"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="140"/>
+      <c r="AJ7" s="140"/>
+      <c r="AK7" s="141"/>
+      <c r="AL7" s="100" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,23,0))</f>
         <v/>
       </c>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="126"/>
-      <c r="AO7" s="126"/>
-      <c r="AP7" s="126"/>
-      <c r="AQ7" s="127"/>
-      <c r="AR7" s="92" t="str">
+      <c r="AM7" s="140"/>
+      <c r="AN7" s="140"/>
+      <c r="AO7" s="140"/>
+      <c r="AP7" s="140"/>
+      <c r="AQ7" s="141"/>
+      <c r="AR7" s="100" t="str">
         <f>IF(AB4="","",VLOOKUP(AB4,[1]一覧!B3:Y38,24,0))</f>
         <v/>
       </c>
-      <c r="AS7" s="126"/>
-      <c r="AT7" s="126"/>
-      <c r="AU7" s="126"/>
-      <c r="AV7" s="126"/>
-      <c r="AW7" s="127"/>
-      <c r="AX7" s="160"/>
-      <c r="AY7" s="161"/>
-      <c r="AZ7" s="161"/>
-      <c r="BA7" s="161"/>
-      <c r="BB7" s="161"/>
-      <c r="BC7" s="161"/>
-      <c r="BD7" s="161"/>
-      <c r="BE7" s="161"/>
-      <c r="BF7" s="161"/>
-      <c r="BG7" s="174"/>
-      <c r="BH7" s="175"/>
-      <c r="BI7" s="176"/>
-      <c r="BJ7" s="176"/>
-      <c r="BK7" s="176"/>
-      <c r="BL7" s="176"/>
-      <c r="BM7" s="176"/>
-      <c r="BN7" s="176"/>
-      <c r="BO7" s="176"/>
-      <c r="BP7" s="176"/>
-      <c r="BQ7" s="176"/>
-      <c r="BR7" s="176"/>
-      <c r="BS7" s="176"/>
-      <c r="BT7" s="176"/>
-      <c r="BU7" s="176"/>
-      <c r="BV7" s="176"/>
-      <c r="BW7" s="176"/>
-      <c r="BX7" s="176"/>
-      <c r="BY7" s="176"/>
-      <c r="BZ7" s="176"/>
-      <c r="CA7" s="176"/>
-      <c r="CB7" s="176"/>
-      <c r="CC7" s="176"/>
-      <c r="CD7" s="176"/>
-      <c r="CE7" s="176"/>
-      <c r="CF7" s="176"/>
-      <c r="CG7" s="176"/>
-      <c r="CH7" s="176"/>
-      <c r="CI7" s="176"/>
-      <c r="CJ7" s="176"/>
-      <c r="CK7" s="234"/>
+      <c r="AS7" s="140"/>
+      <c r="AT7" s="140"/>
+      <c r="AU7" s="140"/>
+      <c r="AV7" s="140"/>
+      <c r="AW7" s="141"/>
+      <c r="AX7" s="178"/>
+      <c r="AY7" s="179"/>
+      <c r="AZ7" s="179"/>
+      <c r="BA7" s="179"/>
+      <c r="BB7" s="179"/>
+      <c r="BC7" s="179"/>
+      <c r="BD7" s="179"/>
+      <c r="BE7" s="179"/>
+      <c r="BF7" s="179"/>
+      <c r="BG7" s="192"/>
+      <c r="BH7" s="193"/>
+      <c r="BI7" s="194"/>
+      <c r="BJ7" s="194"/>
+      <c r="BK7" s="194"/>
+      <c r="BL7" s="194"/>
+      <c r="BM7" s="194"/>
+      <c r="BN7" s="194"/>
+      <c r="BO7" s="194"/>
+      <c r="BP7" s="194"/>
+      <c r="BQ7" s="194"/>
+      <c r="BR7" s="194"/>
+      <c r="BS7" s="194"/>
+      <c r="BT7" s="194"/>
+      <c r="BU7" s="194"/>
+      <c r="BV7" s="194"/>
+      <c r="BW7" s="194"/>
+      <c r="BX7" s="194"/>
+      <c r="BY7" s="194"/>
+      <c r="BZ7" s="194"/>
+      <c r="CA7" s="194"/>
+      <c r="CB7" s="194"/>
+      <c r="CC7" s="194"/>
+      <c r="CD7" s="194"/>
+      <c r="CE7" s="194"/>
+      <c r="CF7" s="194"/>
+      <c r="CG7" s="194"/>
+      <c r="CH7" s="194"/>
+      <c r="CI7" s="194"/>
+      <c r="CJ7" s="194"/>
+      <c r="CK7" s="255"/>
       <c r="CL7" s="1"/>
     </row>
-    <row r="8" spans="1:90">
+    <row r="8" ht="15.75" spans="1:90">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6938,17 +7030,17 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="2"/>
@@ -6961,40 +7053,40 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="142"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="142"/>
-      <c r="AX8" s="142"/>
+      <c r="AO8" s="160"/>
+      <c r="AP8" s="161"/>
+      <c r="AQ8" s="161"/>
+      <c r="AR8" s="161"/>
+      <c r="AS8" s="161"/>
+      <c r="AT8" s="161"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="160"/>
+      <c r="AX8" s="160"/>
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
-      <c r="BA8" s="142"/>
-      <c r="BB8" s="142"/>
+      <c r="BA8" s="160"/>
+      <c r="BB8" s="160"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
-      <c r="BE8" s="142"/>
-      <c r="BF8" s="142"/>
+      <c r="BE8" s="160"/>
+      <c r="BF8" s="160"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
-      <c r="BI8" s="142"/>
-      <c r="BJ8" s="142"/>
+      <c r="BI8" s="160"/>
+      <c r="BJ8" s="160"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
-      <c r="BM8" s="142"/>
-      <c r="BN8" s="142"/>
+      <c r="BM8" s="160"/>
+      <c r="BN8" s="160"/>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
-      <c r="BQ8" s="142"/>
-      <c r="BR8" s="142"/>
+      <c r="BQ8" s="160"/>
+      <c r="BR8" s="160"/>
       <c r="BS8" s="1"/>
       <c r="BT8" s="1"/>
-      <c r="BU8" s="142"/>
-      <c r="BV8" s="142"/>
+      <c r="BU8" s="160"/>
+      <c r="BV8" s="160"/>
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
@@ -7003,16 +7095,16 @@
       <c r="CB8" s="2"/>
       <c r="CC8" s="2"/>
       <c r="CD8" s="1"/>
-      <c r="CE8" s="142"/>
-      <c r="CF8" s="142"/>
-      <c r="CG8" s="142"/>
-      <c r="CH8" s="142"/>
-      <c r="CI8" s="142"/>
-      <c r="CJ8" s="142"/>
-      <c r="CK8" s="142"/>
-      <c r="CL8" s="142"/>
+      <c r="CE8" s="160"/>
+      <c r="CF8" s="160"/>
+      <c r="CG8" s="160"/>
+      <c r="CH8" s="160"/>
+      <c r="CI8" s="160"/>
+      <c r="CJ8" s="160"/>
+      <c r="CK8" s="160"/>
+      <c r="CL8" s="160"/>
     </row>
-    <row r="9" spans="1:90">
+    <row r="9" ht="15.75" spans="1:90">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7048,19 +7140,19 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="128"/>
-      <c r="AP9" s="144"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
+      <c r="AJ9" s="142"/>
+      <c r="AK9" s="142"/>
+      <c r="AL9" s="142"/>
+      <c r="AM9" s="142"/>
+      <c r="AN9" s="142"/>
+      <c r="AO9" s="142"/>
+      <c r="AP9" s="162"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
@@ -7081,13 +7173,13 @@
       <c r="BN9" s="1"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
-      <c r="BQ9" s="177"/>
-      <c r="BR9" s="178"/>
-      <c r="BS9" s="178"/>
-      <c r="BT9" s="178"/>
-      <c r="BU9" s="178"/>
-      <c r="BV9" s="178"/>
-      <c r="BW9" s="192"/>
+      <c r="BQ9" s="195"/>
+      <c r="BR9" s="196"/>
+      <c r="BS9" s="196"/>
+      <c r="BT9" s="196"/>
+      <c r="BU9" s="196"/>
+      <c r="BV9" s="196"/>
+      <c r="BW9" s="211"/>
       <c r="BX9" s="1"/>
       <c r="BY9" s="1"/>
       <c r="BZ9" s="1"/>
@@ -7119,92 +7211,92 @@
       <c r="H10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="57"/>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="57"/>
-      <c r="BA10" s="57"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="57"/>
-      <c r="BD10" s="57"/>
-      <c r="BE10" s="57"/>
-      <c r="BF10" s="57"/>
-      <c r="BG10" s="57"/>
-      <c r="BH10" s="57"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="57"/>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="57"/>
-      <c r="BP10" s="57"/>
-      <c r="BQ10" s="57"/>
-      <c r="BR10" s="57"/>
-      <c r="BS10" s="179"/>
-      <c r="BT10" s="180" t="s">
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="62"/>
+      <c r="AZ10" s="62"/>
+      <c r="BA10" s="62"/>
+      <c r="BB10" s="62"/>
+      <c r="BC10" s="62"/>
+      <c r="BD10" s="62"/>
+      <c r="BE10" s="62"/>
+      <c r="BF10" s="62"/>
+      <c r="BG10" s="62"/>
+      <c r="BH10" s="62"/>
+      <c r="BI10" s="62"/>
+      <c r="BJ10" s="62"/>
+      <c r="BK10" s="62"/>
+      <c r="BL10" s="62"/>
+      <c r="BM10" s="62"/>
+      <c r="BN10" s="62"/>
+      <c r="BO10" s="62"/>
+      <c r="BP10" s="62"/>
+      <c r="BQ10" s="62"/>
+      <c r="BR10" s="62"/>
+      <c r="BS10" s="197"/>
+      <c r="BT10" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="BU10" s="193"/>
-      <c r="BV10" s="193"/>
-      <c r="BW10" s="193"/>
-      <c r="BX10" s="194"/>
-      <c r="BY10" s="195" t="s">
+      <c r="BU10" s="212"/>
+      <c r="BV10" s="212"/>
+      <c r="BW10" s="212"/>
+      <c r="BX10" s="213"/>
+      <c r="BY10" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="BZ10" s="80"/>
-      <c r="CA10" s="80"/>
-      <c r="CB10" s="80"/>
-      <c r="CC10" s="80"/>
-      <c r="CD10" s="80"/>
-      <c r="CE10" s="80"/>
-      <c r="CF10" s="80"/>
-      <c r="CG10" s="80"/>
-      <c r="CH10" s="80"/>
-      <c r="CI10" s="80"/>
-      <c r="CJ10" s="80"/>
-      <c r="CK10" s="80"/>
-      <c r="CL10" s="235"/>
+      <c r="BZ10" s="85"/>
+      <c r="CA10" s="85"/>
+      <c r="CB10" s="85"/>
+      <c r="CC10" s="85"/>
+      <c r="CD10" s="85"/>
+      <c r="CE10" s="85"/>
+      <c r="CF10" s="85"/>
+      <c r="CG10" s="85"/>
+      <c r="CH10" s="85"/>
+      <c r="CI10" s="85"/>
+      <c r="CJ10" s="85"/>
+      <c r="CK10" s="85"/>
+      <c r="CL10" s="256"/>
     </row>
     <row r="11" ht="15.75" spans="1:90">
       <c r="A11" s="1"/>
@@ -7217,116 +7309,116 @@
       <c r="H11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59" t="s">
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59" t="s">
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59" t="s">
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="93" t="s">
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="94" t="s">
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="129" t="s">
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="AK11" s="129"/>
-      <c r="AL11" s="129"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="130" t="s">
+      <c r="AK11" s="143"/>
+      <c r="AL11" s="143"/>
+      <c r="AM11" s="143"/>
+      <c r="AN11" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="AO11" s="145"/>
-      <c r="AP11" s="145"/>
-      <c r="AQ11" s="146"/>
-      <c r="AR11" s="129" t="s">
+      <c r="AO11" s="163"/>
+      <c r="AP11" s="163"/>
+      <c r="AQ11" s="164"/>
+      <c r="AR11" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="AS11" s="129"/>
-      <c r="AT11" s="129"/>
-      <c r="AU11" s="130"/>
-      <c r="AV11" s="129" t="s">
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="144"/>
+      <c r="AV11" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="AW11" s="129"/>
-      <c r="AX11" s="129"/>
-      <c r="AY11" s="130"/>
-      <c r="AZ11" s="162" t="s">
+      <c r="AW11" s="143"/>
+      <c r="AX11" s="143"/>
+      <c r="AY11" s="144"/>
+      <c r="AZ11" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="BA11" s="162"/>
-      <c r="BB11" s="162"/>
-      <c r="BC11" s="163"/>
-      <c r="BD11" s="129" t="s">
+      <c r="BA11" s="180"/>
+      <c r="BB11" s="180"/>
+      <c r="BC11" s="181"/>
+      <c r="BD11" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="BE11" s="129"/>
-      <c r="BF11" s="129"/>
-      <c r="BG11" s="130"/>
-      <c r="BH11" s="129" t="s">
+      <c r="BE11" s="143"/>
+      <c r="BF11" s="143"/>
+      <c r="BG11" s="144"/>
+      <c r="BH11" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="BI11" s="129"/>
-      <c r="BJ11" s="129"/>
-      <c r="BK11" s="130"/>
-      <c r="BL11" s="129" t="s">
+      <c r="BI11" s="143"/>
+      <c r="BJ11" s="143"/>
+      <c r="BK11" s="144"/>
+      <c r="BL11" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="BM11" s="129"/>
-      <c r="BN11" s="129"/>
-      <c r="BO11" s="130"/>
-      <c r="BP11" s="129" t="s">
+      <c r="BM11" s="143"/>
+      <c r="BN11" s="143"/>
+      <c r="BO11" s="144"/>
+      <c r="BP11" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="BQ11" s="129"/>
-      <c r="BR11" s="129"/>
-      <c r="BS11" s="130"/>
-      <c r="BT11" s="181"/>
-      <c r="BU11" s="196"/>
-      <c r="BV11" s="196"/>
-      <c r="BW11" s="196"/>
-      <c r="BX11" s="197"/>
-      <c r="BY11" s="198"/>
-      <c r="BZ11" s="199"/>
-      <c r="CA11" s="199"/>
-      <c r="CB11" s="199"/>
-      <c r="CC11" s="199"/>
-      <c r="CD11" s="199"/>
-      <c r="CE11" s="199"/>
-      <c r="CF11" s="199"/>
-      <c r="CG11" s="199"/>
-      <c r="CH11" s="199"/>
-      <c r="CI11" s="199"/>
-      <c r="CJ11" s="199"/>
-      <c r="CK11" s="199"/>
-      <c r="CL11" s="236"/>
+      <c r="BQ11" s="143"/>
+      <c r="BR11" s="143"/>
+      <c r="BS11" s="144"/>
+      <c r="BT11" s="199"/>
+      <c r="BU11" s="215"/>
+      <c r="BV11" s="215"/>
+      <c r="BW11" s="215"/>
+      <c r="BX11" s="216"/>
+      <c r="BY11" s="217"/>
+      <c r="BZ11" s="218"/>
+      <c r="CA11" s="218"/>
+      <c r="CB11" s="218"/>
+      <c r="CC11" s="218"/>
+      <c r="CD11" s="218"/>
+      <c r="CE11" s="218"/>
+      <c r="CF11" s="218"/>
+      <c r="CG11" s="218"/>
+      <c r="CH11" s="218"/>
+      <c r="CI11" s="218"/>
+      <c r="CJ11" s="218"/>
+      <c r="CK11" s="218"/>
+      <c r="CL11" s="257"/>
     </row>
     <row r="12" ht="15.75" spans="1:90">
       <c r="A12" s="1"/>
@@ -7337,92 +7429,92 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="96" t="s">
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97" t="s">
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="132"/>
-      <c r="AK12" s="132"/>
-      <c r="AL12" s="132"/>
-      <c r="AM12" s="132"/>
-      <c r="AN12" s="133"/>
-      <c r="AO12" s="147"/>
-      <c r="AP12" s="147"/>
-      <c r="AQ12" s="148"/>
-      <c r="AR12" s="132"/>
-      <c r="AS12" s="132"/>
-      <c r="AT12" s="132"/>
-      <c r="AU12" s="133"/>
-      <c r="AV12" s="132"/>
-      <c r="AW12" s="132"/>
-      <c r="AX12" s="132"/>
-      <c r="AY12" s="133"/>
-      <c r="AZ12" s="164"/>
-      <c r="BA12" s="164"/>
-      <c r="BB12" s="164"/>
-      <c r="BC12" s="165"/>
-      <c r="BD12" s="132"/>
-      <c r="BE12" s="132"/>
-      <c r="BF12" s="132"/>
-      <c r="BG12" s="133"/>
-      <c r="BH12" s="132"/>
-      <c r="BI12" s="132"/>
-      <c r="BJ12" s="132"/>
-      <c r="BK12" s="133"/>
-      <c r="BL12" s="132"/>
-      <c r="BM12" s="132"/>
-      <c r="BN12" s="132"/>
-      <c r="BO12" s="133"/>
-      <c r="BP12" s="132"/>
-      <c r="BQ12" s="132"/>
-      <c r="BR12" s="132"/>
-      <c r="BS12" s="133"/>
-      <c r="BT12" s="182"/>
-      <c r="BU12" s="200"/>
-      <c r="BV12" s="200"/>
-      <c r="BW12" s="200"/>
-      <c r="BX12" s="201"/>
-      <c r="BY12" s="202"/>
-      <c r="BZ12" s="203"/>
-      <c r="CA12" s="203"/>
-      <c r="CB12" s="203"/>
-      <c r="CC12" s="203"/>
-      <c r="CD12" s="203"/>
-      <c r="CE12" s="203"/>
-      <c r="CF12" s="203"/>
-      <c r="CG12" s="203"/>
-      <c r="CH12" s="203"/>
-      <c r="CI12" s="203"/>
-      <c r="CJ12" s="203"/>
-      <c r="CK12" s="203"/>
-      <c r="CL12" s="237"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="145"/>
+      <c r="AJ12" s="146"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="147"/>
+      <c r="AO12" s="165"/>
+      <c r="AP12" s="165"/>
+      <c r="AQ12" s="166"/>
+      <c r="AR12" s="146"/>
+      <c r="AS12" s="146"/>
+      <c r="AT12" s="146"/>
+      <c r="AU12" s="147"/>
+      <c r="AV12" s="146"/>
+      <c r="AW12" s="146"/>
+      <c r="AX12" s="146"/>
+      <c r="AY12" s="147"/>
+      <c r="AZ12" s="182"/>
+      <c r="BA12" s="182"/>
+      <c r="BB12" s="182"/>
+      <c r="BC12" s="183"/>
+      <c r="BD12" s="146"/>
+      <c r="BE12" s="146"/>
+      <c r="BF12" s="146"/>
+      <c r="BG12" s="147"/>
+      <c r="BH12" s="146"/>
+      <c r="BI12" s="146"/>
+      <c r="BJ12" s="146"/>
+      <c r="BK12" s="147"/>
+      <c r="BL12" s="146"/>
+      <c r="BM12" s="146"/>
+      <c r="BN12" s="146"/>
+      <c r="BO12" s="147"/>
+      <c r="BP12" s="146"/>
+      <c r="BQ12" s="146"/>
+      <c r="BR12" s="146"/>
+      <c r="BS12" s="147"/>
+      <c r="BT12" s="200"/>
+      <c r="BU12" s="219"/>
+      <c r="BV12" s="219"/>
+      <c r="BW12" s="219"/>
+      <c r="BX12" s="220"/>
+      <c r="BY12" s="221"/>
+      <c r="BZ12" s="222"/>
+      <c r="CA12" s="222"/>
+      <c r="CB12" s="222"/>
+      <c r="CC12" s="222"/>
+      <c r="CD12" s="222"/>
+      <c r="CE12" s="222"/>
+      <c r="CF12" s="222"/>
+      <c r="CG12" s="222"/>
+      <c r="CH12" s="222"/>
+      <c r="CI12" s="222"/>
+      <c r="CJ12" s="222"/>
+      <c r="CK12" s="222"/>
+      <c r="CL12" s="258"/>
     </row>
     <row r="13" spans="1:90">
       <c r="A13" s="1"/>
@@ -7446,75 +7538,75 @@
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
       <c r="Y13" s="35"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="102"/>
-      <c r="AG13" s="102"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="134"/>
-      <c r="AJ13" s="135"/>
-      <c r="AK13" s="135"/>
-      <c r="AL13" s="135"/>
-      <c r="AM13" s="135"/>
-      <c r="AN13" s="135"/>
-      <c r="AO13" s="135"/>
-      <c r="AP13" s="135"/>
-      <c r="AQ13" s="149"/>
-      <c r="AR13" s="135"/>
-      <c r="AS13" s="135"/>
-      <c r="AT13" s="135"/>
-      <c r="AU13" s="135"/>
-      <c r="AV13" s="135"/>
-      <c r="AW13" s="135"/>
-      <c r="AX13" s="135"/>
-      <c r="AY13" s="135"/>
-      <c r="AZ13" s="135"/>
-      <c r="BA13" s="135"/>
-      <c r="BB13" s="135"/>
-      <c r="BC13" s="135"/>
-      <c r="BD13" s="135"/>
-      <c r="BE13" s="135"/>
-      <c r="BF13" s="135"/>
-      <c r="BG13" s="135"/>
-      <c r="BH13" s="135"/>
-      <c r="BI13" s="135"/>
-      <c r="BJ13" s="135"/>
-      <c r="BK13" s="135"/>
-      <c r="BL13" s="135"/>
-      <c r="BM13" s="135"/>
-      <c r="BN13" s="135"/>
-      <c r="BO13" s="135"/>
-      <c r="BP13" s="135"/>
-      <c r="BQ13" s="135"/>
-      <c r="BR13" s="135"/>
-      <c r="BS13" s="183"/>
-      <c r="BT13" s="184"/>
-      <c r="BU13" s="184"/>
-      <c r="BV13" s="184"/>
-      <c r="BW13" s="184"/>
-      <c r="BX13" s="184"/>
-      <c r="BY13" s="204"/>
-      <c r="BZ13" s="205"/>
-      <c r="CA13" s="205"/>
-      <c r="CB13" s="205"/>
-      <c r="CC13" s="205"/>
-      <c r="CD13" s="205"/>
-      <c r="CE13" s="205"/>
-      <c r="CF13" s="205"/>
-      <c r="CG13" s="205"/>
-      <c r="CH13" s="205"/>
-      <c r="CI13" s="205"/>
-      <c r="CJ13" s="205"/>
-      <c r="CK13" s="205"/>
-      <c r="CL13" s="238"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="149"/>
+      <c r="AN13" s="149"/>
+      <c r="AO13" s="149"/>
+      <c r="AP13" s="149"/>
+      <c r="AQ13" s="167"/>
+      <c r="AR13" s="149"/>
+      <c r="AS13" s="149"/>
+      <c r="AT13" s="149"/>
+      <c r="AU13" s="149"/>
+      <c r="AV13" s="149"/>
+      <c r="AW13" s="149"/>
+      <c r="AX13" s="149"/>
+      <c r="AY13" s="149"/>
+      <c r="AZ13" s="149"/>
+      <c r="BA13" s="149"/>
+      <c r="BB13" s="149"/>
+      <c r="BC13" s="149"/>
+      <c r="BD13" s="149"/>
+      <c r="BE13" s="149"/>
+      <c r="BF13" s="149"/>
+      <c r="BG13" s="149"/>
+      <c r="BH13" s="149"/>
+      <c r="BI13" s="149"/>
+      <c r="BJ13" s="149"/>
+      <c r="BK13" s="149"/>
+      <c r="BL13" s="149"/>
+      <c r="BM13" s="149"/>
+      <c r="BN13" s="149"/>
+      <c r="BO13" s="149"/>
+      <c r="BP13" s="149"/>
+      <c r="BQ13" s="149"/>
+      <c r="BR13" s="149"/>
+      <c r="BS13" s="201"/>
+      <c r="BT13" s="202"/>
+      <c r="BU13" s="202"/>
+      <c r="BV13" s="202"/>
+      <c r="BW13" s="202"/>
+      <c r="BX13" s="202"/>
+      <c r="BY13" s="223"/>
+      <c r="BZ13" s="224"/>
+      <c r="CA13" s="224"/>
+      <c r="CB13" s="224"/>
+      <c r="CC13" s="224"/>
+      <c r="CD13" s="224"/>
+      <c r="CE13" s="224"/>
+      <c r="CF13" s="224"/>
+      <c r="CG13" s="224"/>
+      <c r="CH13" s="224"/>
+      <c r="CI13" s="224"/>
+      <c r="CJ13" s="224"/>
+      <c r="CK13" s="224"/>
+      <c r="CL13" s="259"/>
     </row>
     <row r="14" spans="1:90">
       <c r="A14" s="1"/>
@@ -7534,79 +7626,79 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="136"/>
-      <c r="AJ14" s="137"/>
-      <c r="AK14" s="137"/>
-      <c r="AL14" s="137"/>
-      <c r="AM14" s="137"/>
-      <c r="AN14" s="137"/>
-      <c r="AO14" s="137"/>
-      <c r="AP14" s="137"/>
-      <c r="AQ14" s="150"/>
-      <c r="AR14" s="137"/>
-      <c r="AS14" s="137"/>
-      <c r="AT14" s="137"/>
-      <c r="AU14" s="137"/>
-      <c r="AV14" s="137"/>
-      <c r="AW14" s="137"/>
-      <c r="AX14" s="137"/>
-      <c r="AY14" s="137"/>
-      <c r="AZ14" s="137"/>
-      <c r="BA14" s="137"/>
-      <c r="BB14" s="137"/>
-      <c r="BC14" s="137"/>
-      <c r="BD14" s="137"/>
-      <c r="BE14" s="137"/>
-      <c r="BF14" s="137"/>
-      <c r="BG14" s="137"/>
-      <c r="BH14" s="137"/>
-      <c r="BI14" s="137"/>
-      <c r="BJ14" s="137"/>
-      <c r="BK14" s="137"/>
-      <c r="BL14" s="137"/>
-      <c r="BM14" s="137"/>
-      <c r="BN14" s="137"/>
-      <c r="BO14" s="137"/>
-      <c r="BP14" s="137"/>
-      <c r="BQ14" s="137"/>
-      <c r="BR14" s="137"/>
-      <c r="BS14" s="185"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="150"/>
+      <c r="AJ14" s="151"/>
+      <c r="AK14" s="151"/>
+      <c r="AL14" s="151"/>
+      <c r="AM14" s="151"/>
+      <c r="AN14" s="151"/>
+      <c r="AO14" s="151"/>
+      <c r="AP14" s="151"/>
+      <c r="AQ14" s="168"/>
+      <c r="AR14" s="151"/>
+      <c r="AS14" s="151"/>
+      <c r="AT14" s="151"/>
+      <c r="AU14" s="151"/>
+      <c r="AV14" s="151"/>
+      <c r="AW14" s="151"/>
+      <c r="AX14" s="151"/>
+      <c r="AY14" s="151"/>
+      <c r="AZ14" s="151"/>
+      <c r="BA14" s="151"/>
+      <c r="BB14" s="151"/>
+      <c r="BC14" s="151"/>
+      <c r="BD14" s="151"/>
+      <c r="BE14" s="151"/>
+      <c r="BF14" s="151"/>
+      <c r="BG14" s="151"/>
+      <c r="BH14" s="151"/>
+      <c r="BI14" s="151"/>
+      <c r="BJ14" s="151"/>
+      <c r="BK14" s="151"/>
+      <c r="BL14" s="151"/>
+      <c r="BM14" s="151"/>
+      <c r="BN14" s="151"/>
+      <c r="BO14" s="151"/>
+      <c r="BP14" s="151"/>
+      <c r="BQ14" s="151"/>
+      <c r="BR14" s="151"/>
+      <c r="BS14" s="203"/>
       <c r="BT14" s="38"/>
       <c r="BU14" s="8"/>
       <c r="BV14" s="8"/>
       <c r="BW14" s="8"/>
-      <c r="BX14" s="206"/>
-      <c r="BY14" s="207"/>
-      <c r="BZ14" s="208"/>
-      <c r="CA14" s="208"/>
-      <c r="CB14" s="208"/>
-      <c r="CC14" s="208"/>
-      <c r="CD14" s="208"/>
-      <c r="CE14" s="208"/>
-      <c r="CF14" s="208"/>
-      <c r="CG14" s="208"/>
-      <c r="CH14" s="208"/>
-      <c r="CI14" s="208"/>
-      <c r="CJ14" s="208"/>
-      <c r="CK14" s="208"/>
-      <c r="CL14" s="239"/>
+      <c r="BX14" s="225"/>
+      <c r="BY14" s="226"/>
+      <c r="BZ14" s="227"/>
+      <c r="CA14" s="227"/>
+      <c r="CB14" s="227"/>
+      <c r="CC14" s="227"/>
+      <c r="CD14" s="227"/>
+      <c r="CE14" s="227"/>
+      <c r="CF14" s="227"/>
+      <c r="CG14" s="227"/>
+      <c r="CH14" s="227"/>
+      <c r="CI14" s="227"/>
+      <c r="CJ14" s="227"/>
+      <c r="CK14" s="227"/>
+      <c r="CL14" s="260"/>
     </row>
     <row r="15" spans="1:90">
       <c r="A15" s="1"/>
@@ -7626,79 +7718,79 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="136"/>
-      <c r="AJ15" s="137"/>
-      <c r="AK15" s="137"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="137"/>
-      <c r="AN15" s="137"/>
-      <c r="AO15" s="137"/>
-      <c r="AP15" s="137"/>
-      <c r="AQ15" s="150"/>
-      <c r="AR15" s="137"/>
-      <c r="AS15" s="137"/>
-      <c r="AT15" s="137"/>
-      <c r="AU15" s="137"/>
-      <c r="AV15" s="137"/>
-      <c r="AW15" s="137"/>
-      <c r="AX15" s="137"/>
-      <c r="AY15" s="137"/>
-      <c r="AZ15" s="137"/>
-      <c r="BA15" s="137"/>
-      <c r="BB15" s="137"/>
-      <c r="BC15" s="137"/>
-      <c r="BD15" s="137"/>
-      <c r="BE15" s="137"/>
-      <c r="BF15" s="137"/>
-      <c r="BG15" s="137"/>
-      <c r="BH15" s="137"/>
-      <c r="BI15" s="137"/>
-      <c r="BJ15" s="137"/>
-      <c r="BK15" s="137"/>
-      <c r="BL15" s="137"/>
-      <c r="BM15" s="137"/>
-      <c r="BN15" s="137"/>
-      <c r="BO15" s="137"/>
-      <c r="BP15" s="137"/>
-      <c r="BQ15" s="137"/>
-      <c r="BR15" s="137"/>
-      <c r="BS15" s="185"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="150"/>
+      <c r="AJ15" s="151"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="151"/>
+      <c r="AM15" s="151"/>
+      <c r="AN15" s="151"/>
+      <c r="AO15" s="151"/>
+      <c r="AP15" s="151"/>
+      <c r="AQ15" s="168"/>
+      <c r="AR15" s="151"/>
+      <c r="AS15" s="151"/>
+      <c r="AT15" s="151"/>
+      <c r="AU15" s="151"/>
+      <c r="AV15" s="151"/>
+      <c r="AW15" s="151"/>
+      <c r="AX15" s="151"/>
+      <c r="AY15" s="151"/>
+      <c r="AZ15" s="151"/>
+      <c r="BA15" s="151"/>
+      <c r="BB15" s="151"/>
+      <c r="BC15" s="151"/>
+      <c r="BD15" s="151"/>
+      <c r="BE15" s="151"/>
+      <c r="BF15" s="151"/>
+      <c r="BG15" s="151"/>
+      <c r="BH15" s="151"/>
+      <c r="BI15" s="151"/>
+      <c r="BJ15" s="151"/>
+      <c r="BK15" s="151"/>
+      <c r="BL15" s="151"/>
+      <c r="BM15" s="151"/>
+      <c r="BN15" s="151"/>
+      <c r="BO15" s="151"/>
+      <c r="BP15" s="151"/>
+      <c r="BQ15" s="151"/>
+      <c r="BR15" s="151"/>
+      <c r="BS15" s="203"/>
       <c r="BT15" s="38"/>
       <c r="BU15" s="8"/>
       <c r="BV15" s="8"/>
       <c r="BW15" s="8"/>
-      <c r="BX15" s="206"/>
-      <c r="BY15" s="198"/>
-      <c r="BZ15" s="199"/>
-      <c r="CA15" s="199"/>
-      <c r="CB15" s="199"/>
-      <c r="CC15" s="199"/>
-      <c r="CD15" s="199"/>
-      <c r="CE15" s="199"/>
-      <c r="CF15" s="199"/>
-      <c r="CG15" s="199"/>
-      <c r="CH15" s="199"/>
-      <c r="CI15" s="199"/>
-      <c r="CJ15" s="199"/>
-      <c r="CK15" s="199"/>
-      <c r="CL15" s="236"/>
+      <c r="BX15" s="225"/>
+      <c r="BY15" s="217"/>
+      <c r="BZ15" s="218"/>
+      <c r="CA15" s="218"/>
+      <c r="CB15" s="218"/>
+      <c r="CC15" s="218"/>
+      <c r="CD15" s="218"/>
+      <c r="CE15" s="218"/>
+      <c r="CF15" s="218"/>
+      <c r="CG15" s="218"/>
+      <c r="CH15" s="218"/>
+      <c r="CI15" s="218"/>
+      <c r="CJ15" s="218"/>
+      <c r="CK15" s="218"/>
+      <c r="CL15" s="257"/>
     </row>
     <row r="16" spans="1:90">
       <c r="A16" s="1"/>
@@ -7718,79 +7810,79 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="136"/>
-      <c r="AJ16" s="137"/>
-      <c r="AK16" s="137"/>
-      <c r="AL16" s="137"/>
-      <c r="AM16" s="137"/>
-      <c r="AN16" s="137"/>
-      <c r="AO16" s="137"/>
-      <c r="AP16" s="137"/>
-      <c r="AQ16" s="150"/>
-      <c r="AR16" s="137"/>
-      <c r="AS16" s="137"/>
-      <c r="AT16" s="137"/>
-      <c r="AU16" s="137"/>
-      <c r="AV16" s="137"/>
-      <c r="AW16" s="137"/>
-      <c r="AX16" s="137"/>
-      <c r="AY16" s="137"/>
-      <c r="AZ16" s="137"/>
-      <c r="BA16" s="137"/>
-      <c r="BB16" s="137"/>
-      <c r="BC16" s="137"/>
-      <c r="BD16" s="137"/>
-      <c r="BE16" s="137"/>
-      <c r="BF16" s="137"/>
-      <c r="BG16" s="137"/>
-      <c r="BH16" s="137"/>
-      <c r="BI16" s="137"/>
-      <c r="BJ16" s="137"/>
-      <c r="BK16" s="137"/>
-      <c r="BL16" s="137"/>
-      <c r="BM16" s="137"/>
-      <c r="BN16" s="137"/>
-      <c r="BO16" s="137"/>
-      <c r="BP16" s="137"/>
-      <c r="BQ16" s="137"/>
-      <c r="BR16" s="137"/>
-      <c r="BS16" s="185"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="115"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="150"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="168"/>
+      <c r="AR16" s="151"/>
+      <c r="AS16" s="151"/>
+      <c r="AT16" s="151"/>
+      <c r="AU16" s="151"/>
+      <c r="AV16" s="151"/>
+      <c r="AW16" s="151"/>
+      <c r="AX16" s="151"/>
+      <c r="AY16" s="151"/>
+      <c r="AZ16" s="151"/>
+      <c r="BA16" s="151"/>
+      <c r="BB16" s="151"/>
+      <c r="BC16" s="151"/>
+      <c r="BD16" s="151"/>
+      <c r="BE16" s="151"/>
+      <c r="BF16" s="151"/>
+      <c r="BG16" s="151"/>
+      <c r="BH16" s="151"/>
+      <c r="BI16" s="151"/>
+      <c r="BJ16" s="151"/>
+      <c r="BK16" s="151"/>
+      <c r="BL16" s="151"/>
+      <c r="BM16" s="151"/>
+      <c r="BN16" s="151"/>
+      <c r="BO16" s="151"/>
+      <c r="BP16" s="151"/>
+      <c r="BQ16" s="151"/>
+      <c r="BR16" s="151"/>
+      <c r="BS16" s="203"/>
       <c r="BT16" s="38"/>
       <c r="BU16" s="8"/>
       <c r="BV16" s="8"/>
       <c r="BW16" s="8"/>
-      <c r="BX16" s="206"/>
-      <c r="BY16" s="209"/>
-      <c r="BZ16" s="210"/>
-      <c r="CA16" s="210"/>
-      <c r="CB16" s="210"/>
-      <c r="CC16" s="210"/>
-      <c r="CD16" s="210"/>
-      <c r="CE16" s="210"/>
-      <c r="CF16" s="210"/>
-      <c r="CG16" s="210"/>
-      <c r="CH16" s="210"/>
-      <c r="CI16" s="210"/>
-      <c r="CJ16" s="210"/>
-      <c r="CK16" s="210"/>
-      <c r="CL16" s="240"/>
+      <c r="BX16" s="225"/>
+      <c r="BY16" s="228"/>
+      <c r="BZ16" s="229"/>
+      <c r="CA16" s="229"/>
+      <c r="CB16" s="229"/>
+      <c r="CC16" s="229"/>
+      <c r="CD16" s="229"/>
+      <c r="CE16" s="229"/>
+      <c r="CF16" s="229"/>
+      <c r="CG16" s="229"/>
+      <c r="CH16" s="229"/>
+      <c r="CI16" s="229"/>
+      <c r="CJ16" s="229"/>
+      <c r="CK16" s="229"/>
+      <c r="CL16" s="261"/>
     </row>
     <row r="17" spans="1:90">
       <c r="A17" s="1"/>
@@ -7814,75 +7906,75 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="105"/>
-      <c r="AB17" s="105"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="136"/>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="137"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="137"/>
-      <c r="AN17" s="137"/>
-      <c r="AO17" s="137"/>
-      <c r="AP17" s="137"/>
-      <c r="AQ17" s="150"/>
-      <c r="AR17" s="137"/>
-      <c r="AS17" s="137"/>
-      <c r="AT17" s="137"/>
-      <c r="AU17" s="137"/>
-      <c r="AV17" s="137"/>
-      <c r="AW17" s="137"/>
-      <c r="AX17" s="137"/>
-      <c r="AY17" s="137"/>
-      <c r="AZ17" s="137"/>
-      <c r="BA17" s="137"/>
-      <c r="BB17" s="137"/>
-      <c r="BC17" s="137"/>
-      <c r="BD17" s="137"/>
-      <c r="BE17" s="137"/>
-      <c r="BF17" s="137"/>
-      <c r="BG17" s="137"/>
-      <c r="BH17" s="137"/>
-      <c r="BI17" s="137"/>
-      <c r="BJ17" s="137"/>
-      <c r="BK17" s="137"/>
-      <c r="BL17" s="137"/>
-      <c r="BM17" s="137"/>
-      <c r="BN17" s="137"/>
-      <c r="BO17" s="137"/>
-      <c r="BP17" s="137"/>
-      <c r="BQ17" s="137"/>
-      <c r="BR17" s="137"/>
-      <c r="BS17" s="185"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="114"/>
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="150"/>
+      <c r="AJ17" s="151"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="151"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="151"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="151"/>
+      <c r="AQ17" s="168"/>
+      <c r="AR17" s="151"/>
+      <c r="AS17" s="151"/>
+      <c r="AT17" s="151"/>
+      <c r="AU17" s="151"/>
+      <c r="AV17" s="151"/>
+      <c r="AW17" s="151"/>
+      <c r="AX17" s="151"/>
+      <c r="AY17" s="151"/>
+      <c r="AZ17" s="151"/>
+      <c r="BA17" s="151"/>
+      <c r="BB17" s="151"/>
+      <c r="BC17" s="151"/>
+      <c r="BD17" s="151"/>
+      <c r="BE17" s="151"/>
+      <c r="BF17" s="151"/>
+      <c r="BG17" s="151"/>
+      <c r="BH17" s="151"/>
+      <c r="BI17" s="151"/>
+      <c r="BJ17" s="151"/>
+      <c r="BK17" s="151"/>
+      <c r="BL17" s="151"/>
+      <c r="BM17" s="151"/>
+      <c r="BN17" s="151"/>
+      <c r="BO17" s="151"/>
+      <c r="BP17" s="151"/>
+      <c r="BQ17" s="151"/>
+      <c r="BR17" s="151"/>
+      <c r="BS17" s="203"/>
       <c r="BT17" s="38"/>
       <c r="BU17" s="8"/>
       <c r="BV17" s="8"/>
       <c r="BW17" s="8"/>
-      <c r="BX17" s="206"/>
-      <c r="BY17" s="209"/>
-      <c r="BZ17" s="210"/>
-      <c r="CA17" s="210"/>
-      <c r="CB17" s="210"/>
-      <c r="CC17" s="210"/>
-      <c r="CD17" s="210"/>
-      <c r="CE17" s="210"/>
-      <c r="CF17" s="210"/>
-      <c r="CG17" s="210"/>
-      <c r="CH17" s="210"/>
-      <c r="CI17" s="210"/>
-      <c r="CJ17" s="210"/>
-      <c r="CK17" s="210"/>
-      <c r="CL17" s="240"/>
+      <c r="BX17" s="225"/>
+      <c r="BY17" s="228"/>
+      <c r="BZ17" s="229"/>
+      <c r="CA17" s="229"/>
+      <c r="CB17" s="229"/>
+      <c r="CC17" s="229"/>
+      <c r="CD17" s="229"/>
+      <c r="CE17" s="229"/>
+      <c r="CF17" s="229"/>
+      <c r="CG17" s="229"/>
+      <c r="CH17" s="229"/>
+      <c r="CI17" s="229"/>
+      <c r="CJ17" s="229"/>
+      <c r="CK17" s="229"/>
+      <c r="CL17" s="261"/>
     </row>
     <row r="18" spans="1:90">
       <c r="A18" s="1"/>
@@ -7902,723 +7994,723 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="105"/>
-      <c r="AB18" s="105"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="136"/>
-      <c r="AJ18" s="137"/>
-      <c r="AK18" s="137"/>
-      <c r="AL18" s="137"/>
-      <c r="AM18" s="137"/>
-      <c r="AN18" s="137"/>
-      <c r="AO18" s="137"/>
-      <c r="AP18" s="137"/>
-      <c r="AQ18" s="150"/>
-      <c r="AR18" s="137"/>
-      <c r="AS18" s="137"/>
-      <c r="AT18" s="137"/>
-      <c r="AU18" s="137"/>
-      <c r="AV18" s="137"/>
-      <c r="AW18" s="137"/>
-      <c r="AX18" s="137"/>
-      <c r="AY18" s="137"/>
-      <c r="AZ18" s="137"/>
-      <c r="BA18" s="137"/>
-      <c r="BB18" s="137"/>
-      <c r="BC18" s="137"/>
-      <c r="BD18" s="137"/>
-      <c r="BE18" s="137"/>
-      <c r="BF18" s="137"/>
-      <c r="BG18" s="137"/>
-      <c r="BH18" s="137"/>
-      <c r="BI18" s="137"/>
-      <c r="BJ18" s="137"/>
-      <c r="BK18" s="137"/>
-      <c r="BL18" s="137"/>
-      <c r="BM18" s="137"/>
-      <c r="BN18" s="137"/>
-      <c r="BO18" s="137"/>
-      <c r="BP18" s="137"/>
-      <c r="BQ18" s="137"/>
-      <c r="BR18" s="137"/>
-      <c r="BS18" s="185"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="115"/>
+      <c r="AE18" s="116"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="150"/>
+      <c r="AJ18" s="151"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="151"/>
+      <c r="AM18" s="151"/>
+      <c r="AN18" s="151"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
+      <c r="AQ18" s="168"/>
+      <c r="AR18" s="151"/>
+      <c r="AS18" s="151"/>
+      <c r="AT18" s="151"/>
+      <c r="AU18" s="151"/>
+      <c r="AV18" s="151"/>
+      <c r="AW18" s="151"/>
+      <c r="AX18" s="151"/>
+      <c r="AY18" s="151"/>
+      <c r="AZ18" s="151"/>
+      <c r="BA18" s="151"/>
+      <c r="BB18" s="151"/>
+      <c r="BC18" s="151"/>
+      <c r="BD18" s="151"/>
+      <c r="BE18" s="151"/>
+      <c r="BF18" s="151"/>
+      <c r="BG18" s="151"/>
+      <c r="BH18" s="151"/>
+      <c r="BI18" s="151"/>
+      <c r="BJ18" s="151"/>
+      <c r="BK18" s="151"/>
+      <c r="BL18" s="151"/>
+      <c r="BM18" s="151"/>
+      <c r="BN18" s="151"/>
+      <c r="BO18" s="151"/>
+      <c r="BP18" s="151"/>
+      <c r="BQ18" s="151"/>
+      <c r="BR18" s="151"/>
+      <c r="BS18" s="203"/>
       <c r="BT18" s="38"/>
       <c r="BU18" s="8"/>
       <c r="BV18" s="8"/>
       <c r="BW18" s="8"/>
-      <c r="BX18" s="206"/>
-      <c r="BY18" s="207"/>
-      <c r="BZ18" s="208"/>
-      <c r="CA18" s="208"/>
-      <c r="CB18" s="208"/>
-      <c r="CC18" s="208"/>
-      <c r="CD18" s="208"/>
-      <c r="CE18" s="208"/>
-      <c r="CF18" s="208"/>
-      <c r="CG18" s="208"/>
-      <c r="CH18" s="208"/>
-      <c r="CI18" s="208"/>
-      <c r="CJ18" s="208"/>
-      <c r="CK18" s="208"/>
-      <c r="CL18" s="239"/>
+      <c r="BX18" s="225"/>
+      <c r="BY18" s="226"/>
+      <c r="BZ18" s="227"/>
+      <c r="CA18" s="227"/>
+      <c r="CB18" s="227"/>
+      <c r="CC18" s="227"/>
+      <c r="CD18" s="227"/>
+      <c r="CE18" s="227"/>
+      <c r="CF18" s="227"/>
+      <c r="CG18" s="227"/>
+      <c r="CH18" s="227"/>
+      <c r="CI18" s="227"/>
+      <c r="CJ18" s="227"/>
+      <c r="CK18" s="227"/>
+      <c r="CL18" s="260"/>
     </row>
     <row r="19" spans="1:90">
       <c r="A19" s="1"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="105"/>
-      <c r="AB19" s="105"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="108"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="136"/>
-      <c r="AJ19" s="137"/>
-      <c r="AK19" s="137"/>
-      <c r="AL19" s="137"/>
-      <c r="AM19" s="137"/>
-      <c r="AN19" s="137"/>
-      <c r="AO19" s="137"/>
-      <c r="AP19" s="137"/>
-      <c r="AQ19" s="150"/>
-      <c r="AR19" s="150"/>
-      <c r="AS19" s="110"/>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="151"/>
-      <c r="AV19" s="137"/>
-      <c r="AW19" s="137"/>
-      <c r="AX19" s="137"/>
-      <c r="AY19" s="137"/>
-      <c r="AZ19" s="137"/>
-      <c r="BA19" s="137"/>
-      <c r="BB19" s="137"/>
-      <c r="BC19" s="137"/>
-      <c r="BD19" s="137"/>
-      <c r="BE19" s="137"/>
-      <c r="BF19" s="137"/>
-      <c r="BG19" s="137"/>
-      <c r="BH19" s="137"/>
-      <c r="BI19" s="137"/>
-      <c r="BJ19" s="137"/>
-      <c r="BK19" s="137"/>
-      <c r="BL19" s="137"/>
-      <c r="BM19" s="137"/>
-      <c r="BN19" s="137"/>
-      <c r="BO19" s="137"/>
-      <c r="BP19" s="137"/>
-      <c r="BQ19" s="137"/>
-      <c r="BR19" s="137"/>
-      <c r="BS19" s="185"/>
-      <c r="BT19" s="38"/>
-      <c r="BU19" s="8"/>
-      <c r="BV19" s="8"/>
-      <c r="BW19" s="8"/>
-      <c r="BX19" s="206"/>
-      <c r="BY19" s="198"/>
-      <c r="BZ19" s="199"/>
-      <c r="CA19" s="199"/>
-      <c r="CB19" s="199"/>
-      <c r="CC19" s="199"/>
-      <c r="CD19" s="199"/>
-      <c r="CE19" s="199"/>
-      <c r="CF19" s="199"/>
-      <c r="CG19" s="199"/>
-      <c r="CH19" s="199"/>
-      <c r="CI19" s="199"/>
-      <c r="CJ19" s="199"/>
-      <c r="CK19" s="199"/>
-      <c r="CL19" s="236"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="153"/>
+      <c r="AJ19" s="154"/>
+      <c r="AK19" s="121"/>
+      <c r="AL19" s="121"/>
+      <c r="AM19" s="155"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="121"/>
+      <c r="AP19" s="121"/>
+      <c r="AQ19" s="121"/>
+      <c r="AR19" s="154"/>
+      <c r="AS19" s="121"/>
+      <c r="AT19" s="121"/>
+      <c r="AU19" s="155"/>
+      <c r="AV19" s="154"/>
+      <c r="AW19" s="121"/>
+      <c r="AX19" s="121"/>
+      <c r="AY19" s="155"/>
+      <c r="AZ19" s="154"/>
+      <c r="BA19" s="121"/>
+      <c r="BB19" s="121"/>
+      <c r="BC19" s="155"/>
+      <c r="BD19" s="154"/>
+      <c r="BE19" s="121"/>
+      <c r="BF19" s="121"/>
+      <c r="BG19" s="155"/>
+      <c r="BH19" s="154"/>
+      <c r="BI19" s="121"/>
+      <c r="BJ19" s="121"/>
+      <c r="BK19" s="155"/>
+      <c r="BL19" s="154"/>
+      <c r="BM19" s="121"/>
+      <c r="BN19" s="121"/>
+      <c r="BO19" s="155"/>
+      <c r="BP19" s="154"/>
+      <c r="BQ19" s="121"/>
+      <c r="BR19" s="121"/>
+      <c r="BS19" s="204"/>
+      <c r="BT19" s="40"/>
+      <c r="BU19" s="40"/>
+      <c r="BV19" s="40"/>
+      <c r="BW19" s="40"/>
+      <c r="BX19" s="40"/>
+      <c r="BY19" s="230"/>
+      <c r="BZ19" s="231"/>
+      <c r="CA19" s="231"/>
+      <c r="CB19" s="231"/>
+      <c r="CC19" s="231"/>
+      <c r="CD19" s="231"/>
+      <c r="CE19" s="231"/>
+      <c r="CF19" s="231"/>
+      <c r="CG19" s="231"/>
+      <c r="CH19" s="231"/>
+      <c r="CI19" s="231"/>
+      <c r="CJ19" s="231"/>
+      <c r="CK19" s="231"/>
+      <c r="CL19" s="262"/>
     </row>
     <row r="20" spans="1:90">
       <c r="A20" s="1"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="136"/>
-      <c r="AJ20" s="137"/>
-      <c r="AK20" s="137"/>
-      <c r="AL20" s="137"/>
-      <c r="AM20" s="137"/>
-      <c r="AN20" s="137"/>
-      <c r="AO20" s="137"/>
-      <c r="AP20" s="137"/>
-      <c r="AQ20" s="150"/>
-      <c r="AR20" s="137"/>
-      <c r="AS20" s="137"/>
-      <c r="AT20" s="137"/>
-      <c r="AU20" s="137"/>
-      <c r="AV20" s="137"/>
-      <c r="AW20" s="137"/>
-      <c r="AX20" s="137"/>
-      <c r="AY20" s="137"/>
-      <c r="AZ20" s="137"/>
-      <c r="BA20" s="137"/>
-      <c r="BB20" s="137"/>
-      <c r="BC20" s="137"/>
-      <c r="BD20" s="137"/>
-      <c r="BE20" s="137"/>
-      <c r="BF20" s="137"/>
-      <c r="BG20" s="137"/>
-      <c r="BH20" s="137"/>
-      <c r="BI20" s="137"/>
-      <c r="BJ20" s="137"/>
-      <c r="BK20" s="137"/>
-      <c r="BL20" s="137"/>
-      <c r="BM20" s="137"/>
-      <c r="BN20" s="137"/>
-      <c r="BO20" s="137"/>
-      <c r="BP20" s="137"/>
-      <c r="BQ20" s="137"/>
-      <c r="BR20" s="137"/>
-      <c r="BS20" s="185"/>
-      <c r="BT20" s="38"/>
-      <c r="BU20" s="8"/>
-      <c r="BV20" s="8"/>
-      <c r="BW20" s="8"/>
-      <c r="BX20" s="206"/>
-      <c r="BY20" s="211"/>
-      <c r="BZ20" s="212"/>
-      <c r="CA20" s="212"/>
-      <c r="CB20" s="212"/>
-      <c r="CC20" s="212"/>
-      <c r="CD20" s="212"/>
-      <c r="CE20" s="212"/>
-      <c r="CF20" s="212"/>
-      <c r="CG20" s="212"/>
-      <c r="CH20" s="212"/>
-      <c r="CI20" s="212"/>
-      <c r="CJ20" s="212"/>
-      <c r="CK20" s="212"/>
-      <c r="CL20" s="241"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="152"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="153"/>
+      <c r="AJ20" s="154"/>
+      <c r="AK20" s="121"/>
+      <c r="AL20" s="121"/>
+      <c r="AM20" s="155"/>
+      <c r="AN20" s="154"/>
+      <c r="AO20" s="121"/>
+      <c r="AP20" s="121"/>
+      <c r="AQ20" s="121"/>
+      <c r="AR20" s="154"/>
+      <c r="AS20" s="121"/>
+      <c r="AT20" s="121"/>
+      <c r="AU20" s="155"/>
+      <c r="AV20" s="154"/>
+      <c r="AW20" s="121"/>
+      <c r="AX20" s="121"/>
+      <c r="AY20" s="155"/>
+      <c r="AZ20" s="154"/>
+      <c r="BA20" s="121"/>
+      <c r="BB20" s="121"/>
+      <c r="BC20" s="155"/>
+      <c r="BD20" s="154"/>
+      <c r="BE20" s="121"/>
+      <c r="BF20" s="121"/>
+      <c r="BG20" s="155"/>
+      <c r="BH20" s="154"/>
+      <c r="BI20" s="121"/>
+      <c r="BJ20" s="121"/>
+      <c r="BK20" s="155"/>
+      <c r="BL20" s="154"/>
+      <c r="BM20" s="121"/>
+      <c r="BN20" s="121"/>
+      <c r="BO20" s="155"/>
+      <c r="BP20" s="154"/>
+      <c r="BQ20" s="121"/>
+      <c r="BR20" s="121"/>
+      <c r="BS20" s="204"/>
+      <c r="BT20" s="40"/>
+      <c r="BU20" s="40"/>
+      <c r="BV20" s="40"/>
+      <c r="BW20" s="40"/>
+      <c r="BX20" s="40"/>
+      <c r="BY20" s="230"/>
+      <c r="BZ20" s="231"/>
+      <c r="CA20" s="231"/>
+      <c r="CB20" s="231"/>
+      <c r="CC20" s="231"/>
+      <c r="CD20" s="231"/>
+      <c r="CE20" s="231"/>
+      <c r="CF20" s="231"/>
+      <c r="CG20" s="231"/>
+      <c r="CH20" s="231"/>
+      <c r="CI20" s="231"/>
+      <c r="CJ20" s="231"/>
+      <c r="CK20" s="231"/>
+      <c r="CL20" s="262"/>
     </row>
     <row r="21" spans="1:90">
       <c r="A21" s="1"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="108"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="136"/>
-      <c r="AJ21" s="137"/>
-      <c r="AK21" s="137"/>
-      <c r="AL21" s="137"/>
-      <c r="AM21" s="137"/>
-      <c r="AN21" s="137"/>
-      <c r="AO21" s="137"/>
-      <c r="AP21" s="137"/>
-      <c r="AQ21" s="150"/>
-      <c r="AR21" s="137"/>
-      <c r="AS21" s="137"/>
-      <c r="AT21" s="137"/>
-      <c r="AU21" s="137"/>
-      <c r="AV21" s="137"/>
-      <c r="AW21" s="137"/>
-      <c r="AX21" s="137"/>
-      <c r="AY21" s="137"/>
-      <c r="AZ21" s="137"/>
-      <c r="BA21" s="137"/>
-      <c r="BB21" s="137"/>
-      <c r="BC21" s="137"/>
-      <c r="BD21" s="137"/>
-      <c r="BE21" s="137"/>
-      <c r="BF21" s="137"/>
-      <c r="BG21" s="137"/>
-      <c r="BH21" s="137"/>
-      <c r="BI21" s="137"/>
-      <c r="BJ21" s="137"/>
-      <c r="BK21" s="137"/>
-      <c r="BL21" s="137"/>
-      <c r="BM21" s="137"/>
-      <c r="BN21" s="137"/>
-      <c r="BO21" s="137"/>
-      <c r="BP21" s="137"/>
-      <c r="BQ21" s="137"/>
-      <c r="BR21" s="137"/>
-      <c r="BS21" s="185"/>
-      <c r="BT21" s="38"/>
-      <c r="BU21" s="8"/>
-      <c r="BV21" s="8"/>
-      <c r="BW21" s="8"/>
-      <c r="BX21" s="206"/>
-      <c r="BY21" s="213"/>
-      <c r="BZ21" s="214"/>
-      <c r="CA21" s="214"/>
-      <c r="CB21" s="214"/>
-      <c r="CC21" s="214"/>
-      <c r="CD21" s="214"/>
-      <c r="CE21" s="214"/>
-      <c r="CF21" s="214"/>
-      <c r="CG21" s="214"/>
-      <c r="CH21" s="214"/>
-      <c r="CI21" s="214"/>
-      <c r="CJ21" s="214"/>
-      <c r="CK21" s="214"/>
-      <c r="CL21" s="242"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="153"/>
+      <c r="AJ21" s="154"/>
+      <c r="AK21" s="121"/>
+      <c r="AL21" s="121"/>
+      <c r="AM21" s="155"/>
+      <c r="AN21" s="154"/>
+      <c r="AO21" s="121"/>
+      <c r="AP21" s="121"/>
+      <c r="AQ21" s="121"/>
+      <c r="AR21" s="154"/>
+      <c r="AS21" s="121"/>
+      <c r="AT21" s="121"/>
+      <c r="AU21" s="155"/>
+      <c r="AV21" s="154"/>
+      <c r="AW21" s="121"/>
+      <c r="AX21" s="121"/>
+      <c r="AY21" s="155"/>
+      <c r="AZ21" s="154"/>
+      <c r="BA21" s="121"/>
+      <c r="BB21" s="121"/>
+      <c r="BC21" s="155"/>
+      <c r="BD21" s="154"/>
+      <c r="BE21" s="121"/>
+      <c r="BF21" s="121"/>
+      <c r="BG21" s="155"/>
+      <c r="BH21" s="154"/>
+      <c r="BI21" s="121"/>
+      <c r="BJ21" s="121"/>
+      <c r="BK21" s="155"/>
+      <c r="BL21" s="154"/>
+      <c r="BM21" s="121"/>
+      <c r="BN21" s="121"/>
+      <c r="BO21" s="155"/>
+      <c r="BP21" s="154"/>
+      <c r="BQ21" s="121"/>
+      <c r="BR21" s="121"/>
+      <c r="BS21" s="204"/>
+      <c r="BT21" s="40"/>
+      <c r="BU21" s="40"/>
+      <c r="BV21" s="40"/>
+      <c r="BW21" s="40"/>
+      <c r="BX21" s="40"/>
+      <c r="BY21" s="230"/>
+      <c r="BZ21" s="231"/>
+      <c r="CA21" s="231"/>
+      <c r="CB21" s="231"/>
+      <c r="CC21" s="231"/>
+      <c r="CD21" s="231"/>
+      <c r="CE21" s="231"/>
+      <c r="CF21" s="231"/>
+      <c r="CG21" s="231"/>
+      <c r="CH21" s="231"/>
+      <c r="CI21" s="231"/>
+      <c r="CJ21" s="231"/>
+      <c r="CK21" s="231"/>
+      <c r="CL21" s="262"/>
     </row>
     <row r="22" spans="1:90">
       <c r="A22" s="1"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="136"/>
-      <c r="AJ22" s="137"/>
-      <c r="AK22" s="137"/>
-      <c r="AL22" s="137"/>
-      <c r="AM22" s="137"/>
-      <c r="AN22" s="137"/>
-      <c r="AO22" s="137"/>
-      <c r="AP22" s="137"/>
-      <c r="AQ22" s="150"/>
-      <c r="AR22" s="137"/>
-      <c r="AS22" s="137"/>
-      <c r="AT22" s="137"/>
-      <c r="AU22" s="137"/>
-      <c r="AV22" s="137"/>
-      <c r="AW22" s="137"/>
-      <c r="AX22" s="137"/>
-      <c r="AY22" s="137"/>
-      <c r="AZ22" s="137"/>
-      <c r="BA22" s="137"/>
-      <c r="BB22" s="137"/>
-      <c r="BC22" s="137"/>
-      <c r="BD22" s="137"/>
-      <c r="BE22" s="137"/>
-      <c r="BF22" s="137"/>
-      <c r="BG22" s="137"/>
-      <c r="BH22" s="137"/>
-      <c r="BI22" s="137"/>
-      <c r="BJ22" s="137"/>
-      <c r="BK22" s="137"/>
-      <c r="BL22" s="137"/>
-      <c r="BM22" s="137"/>
-      <c r="BN22" s="137"/>
-      <c r="BO22" s="137"/>
-      <c r="BP22" s="137"/>
-      <c r="BQ22" s="137"/>
-      <c r="BR22" s="137"/>
-      <c r="BS22" s="185"/>
-      <c r="BT22" s="38"/>
-      <c r="BU22" s="8"/>
-      <c r="BV22" s="8"/>
-      <c r="BW22" s="8"/>
-      <c r="BX22" s="206"/>
-      <c r="BY22" s="215"/>
-      <c r="BZ22" s="110"/>
-      <c r="CA22" s="110"/>
-      <c r="CB22" s="110"/>
-      <c r="CC22" s="110"/>
-      <c r="CD22" s="110"/>
-      <c r="CE22" s="110"/>
-      <c r="CF22" s="110"/>
-      <c r="CG22" s="110"/>
-      <c r="CH22" s="110"/>
-      <c r="CI22" s="110"/>
-      <c r="CJ22" s="110"/>
-      <c r="CK22" s="110"/>
-      <c r="CL22" s="243"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="152"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="153"/>
+      <c r="AJ22" s="154"/>
+      <c r="AK22" s="121"/>
+      <c r="AL22" s="121"/>
+      <c r="AM22" s="155"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="121"/>
+      <c r="AP22" s="121"/>
+      <c r="AQ22" s="121"/>
+      <c r="AR22" s="154"/>
+      <c r="AS22" s="121"/>
+      <c r="AT22" s="121"/>
+      <c r="AU22" s="155"/>
+      <c r="AV22" s="154"/>
+      <c r="AW22" s="121"/>
+      <c r="AX22" s="121"/>
+      <c r="AY22" s="155"/>
+      <c r="AZ22" s="154"/>
+      <c r="BA22" s="121"/>
+      <c r="BB22" s="121"/>
+      <c r="BC22" s="155"/>
+      <c r="BD22" s="154"/>
+      <c r="BE22" s="121"/>
+      <c r="BF22" s="121"/>
+      <c r="BG22" s="155"/>
+      <c r="BH22" s="154"/>
+      <c r="BI22" s="121"/>
+      <c r="BJ22" s="121"/>
+      <c r="BK22" s="155"/>
+      <c r="BL22" s="154"/>
+      <c r="BM22" s="121"/>
+      <c r="BN22" s="121"/>
+      <c r="BO22" s="155"/>
+      <c r="BP22" s="154"/>
+      <c r="BQ22" s="121"/>
+      <c r="BR22" s="121"/>
+      <c r="BS22" s="204"/>
+      <c r="BT22" s="40"/>
+      <c r="BU22" s="40"/>
+      <c r="BV22" s="40"/>
+      <c r="BW22" s="40"/>
+      <c r="BX22" s="40"/>
+      <c r="BY22" s="230"/>
+      <c r="BZ22" s="231"/>
+      <c r="CA22" s="231"/>
+      <c r="CB22" s="231"/>
+      <c r="CC22" s="231"/>
+      <c r="CD22" s="231"/>
+      <c r="CE22" s="231"/>
+      <c r="CF22" s="231"/>
+      <c r="CG22" s="231"/>
+      <c r="CH22" s="231"/>
+      <c r="CI22" s="231"/>
+      <c r="CJ22" s="231"/>
+      <c r="CK22" s="231"/>
+      <c r="CL22" s="262"/>
     </row>
     <row r="23" spans="1:90">
       <c r="A23" s="1"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="136"/>
-      <c r="AJ23" s="137"/>
-      <c r="AK23" s="137"/>
-      <c r="AL23" s="137"/>
-      <c r="AM23" s="137"/>
-      <c r="AN23" s="137"/>
-      <c r="AO23" s="137"/>
-      <c r="AP23" s="137"/>
-      <c r="AQ23" s="150"/>
-      <c r="AR23" s="137"/>
-      <c r="AS23" s="137"/>
-      <c r="AT23" s="137"/>
-      <c r="AU23" s="137"/>
-      <c r="AV23" s="137"/>
-      <c r="AW23" s="137"/>
-      <c r="AX23" s="137"/>
-      <c r="AY23" s="137"/>
-      <c r="AZ23" s="137"/>
-      <c r="BA23" s="137"/>
-      <c r="BB23" s="137"/>
-      <c r="BC23" s="137"/>
-      <c r="BD23" s="137"/>
-      <c r="BE23" s="137"/>
-      <c r="BF23" s="137"/>
-      <c r="BG23" s="137"/>
-      <c r="BH23" s="137"/>
-      <c r="BI23" s="137"/>
-      <c r="BJ23" s="137"/>
-      <c r="BK23" s="137"/>
-      <c r="BL23" s="137"/>
-      <c r="BM23" s="137"/>
-      <c r="BN23" s="137"/>
-      <c r="BO23" s="137"/>
-      <c r="BP23" s="137"/>
-      <c r="BQ23" s="137"/>
-      <c r="BR23" s="137"/>
-      <c r="BS23" s="185"/>
-      <c r="BT23" s="38"/>
-      <c r="BU23" s="8"/>
-      <c r="BV23" s="8"/>
-      <c r="BW23" s="8"/>
-      <c r="BX23" s="206"/>
-      <c r="BY23" s="213"/>
-      <c r="BZ23" s="214"/>
-      <c r="CA23" s="214"/>
-      <c r="CB23" s="214"/>
-      <c r="CC23" s="214"/>
-      <c r="CD23" s="214"/>
-      <c r="CE23" s="214"/>
-      <c r="CF23" s="214"/>
-      <c r="CG23" s="214"/>
-      <c r="CH23" s="214"/>
-      <c r="CI23" s="214"/>
-      <c r="CJ23" s="214"/>
-      <c r="CK23" s="214"/>
-      <c r="CL23" s="242"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="119"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="122"/>
+      <c r="AG23" s="152"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="153"/>
+      <c r="AJ23" s="154"/>
+      <c r="AK23" s="121"/>
+      <c r="AL23" s="121"/>
+      <c r="AM23" s="155"/>
+      <c r="AN23" s="154"/>
+      <c r="AO23" s="121"/>
+      <c r="AP23" s="121"/>
+      <c r="AQ23" s="121"/>
+      <c r="AR23" s="154"/>
+      <c r="AS23" s="121"/>
+      <c r="AT23" s="121"/>
+      <c r="AU23" s="155"/>
+      <c r="AV23" s="154"/>
+      <c r="AW23" s="121"/>
+      <c r="AX23" s="121"/>
+      <c r="AY23" s="155"/>
+      <c r="AZ23" s="154"/>
+      <c r="BA23" s="121"/>
+      <c r="BB23" s="121"/>
+      <c r="BC23" s="155"/>
+      <c r="BD23" s="154"/>
+      <c r="BE23" s="121"/>
+      <c r="BF23" s="121"/>
+      <c r="BG23" s="155"/>
+      <c r="BH23" s="154"/>
+      <c r="BI23" s="121"/>
+      <c r="BJ23" s="121"/>
+      <c r="BK23" s="155"/>
+      <c r="BL23" s="154"/>
+      <c r="BM23" s="121"/>
+      <c r="BN23" s="121"/>
+      <c r="BO23" s="155"/>
+      <c r="BP23" s="154"/>
+      <c r="BQ23" s="121"/>
+      <c r="BR23" s="121"/>
+      <c r="BS23" s="204"/>
+      <c r="BT23" s="40"/>
+      <c r="BU23" s="40"/>
+      <c r="BV23" s="40"/>
+      <c r="BW23" s="40"/>
+      <c r="BX23" s="40"/>
+      <c r="BY23" s="230"/>
+      <c r="BZ23" s="231"/>
+      <c r="CA23" s="231"/>
+      <c r="CB23" s="231"/>
+      <c r="CC23" s="231"/>
+      <c r="CD23" s="231"/>
+      <c r="CE23" s="231"/>
+      <c r="CF23" s="231"/>
+      <c r="CG23" s="231"/>
+      <c r="CH23" s="231"/>
+      <c r="CI23" s="231"/>
+      <c r="CJ23" s="231"/>
+      <c r="CK23" s="231"/>
+      <c r="CL23" s="262"/>
     </row>
     <row r="24" spans="1:90">
       <c r="A24" s="1"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="136"/>
-      <c r="AJ24" s="137"/>
-      <c r="AK24" s="137"/>
-      <c r="AL24" s="137"/>
-      <c r="AM24" s="137"/>
-      <c r="AN24" s="137"/>
-      <c r="AO24" s="137"/>
-      <c r="AP24" s="137"/>
-      <c r="AQ24" s="150"/>
-      <c r="AR24" s="137"/>
-      <c r="AS24" s="137"/>
-      <c r="AT24" s="137"/>
-      <c r="AU24" s="137"/>
-      <c r="AV24" s="137"/>
-      <c r="AW24" s="137"/>
-      <c r="AX24" s="137"/>
-      <c r="AY24" s="137"/>
-      <c r="AZ24" s="137"/>
-      <c r="BA24" s="137"/>
-      <c r="BB24" s="137"/>
-      <c r="BC24" s="137"/>
-      <c r="BD24" s="137"/>
-      <c r="BE24" s="137"/>
-      <c r="BF24" s="137"/>
-      <c r="BG24" s="137"/>
-      <c r="BH24" s="137"/>
-      <c r="BI24" s="137"/>
-      <c r="BJ24" s="137"/>
-      <c r="BK24" s="137"/>
-      <c r="BL24" s="137"/>
-      <c r="BM24" s="137"/>
-      <c r="BN24" s="137"/>
-      <c r="BO24" s="137"/>
-      <c r="BP24" s="137"/>
-      <c r="BQ24" s="137"/>
-      <c r="BR24" s="137"/>
-      <c r="BS24" s="185"/>
-      <c r="BT24" s="38"/>
-      <c r="BU24" s="8"/>
-      <c r="BV24" s="8"/>
-      <c r="BW24" s="8"/>
-      <c r="BX24" s="206"/>
-      <c r="BY24" s="215"/>
-      <c r="BZ24" s="110"/>
-      <c r="CA24" s="110"/>
-      <c r="CB24" s="110"/>
-      <c r="CC24" s="110"/>
-      <c r="CD24" s="110"/>
-      <c r="CE24" s="110"/>
-      <c r="CF24" s="110"/>
-      <c r="CG24" s="110"/>
-      <c r="CH24" s="110"/>
-      <c r="CI24" s="110"/>
-      <c r="CJ24" s="110"/>
-      <c r="CK24" s="110"/>
-      <c r="CL24" s="243"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="152"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="153"/>
+      <c r="AJ24" s="154"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="121"/>
+      <c r="AM24" s="155"/>
+      <c r="AN24" s="154"/>
+      <c r="AO24" s="121"/>
+      <c r="AP24" s="121"/>
+      <c r="AQ24" s="121"/>
+      <c r="AR24" s="154"/>
+      <c r="AS24" s="121"/>
+      <c r="AT24" s="121"/>
+      <c r="AU24" s="155"/>
+      <c r="AV24" s="154"/>
+      <c r="AW24" s="121"/>
+      <c r="AX24" s="121"/>
+      <c r="AY24" s="155"/>
+      <c r="AZ24" s="154"/>
+      <c r="BA24" s="121"/>
+      <c r="BB24" s="121"/>
+      <c r="BC24" s="155"/>
+      <c r="BD24" s="154"/>
+      <c r="BE24" s="121"/>
+      <c r="BF24" s="121"/>
+      <c r="BG24" s="155"/>
+      <c r="BH24" s="154"/>
+      <c r="BI24" s="121"/>
+      <c r="BJ24" s="121"/>
+      <c r="BK24" s="155"/>
+      <c r="BL24" s="154"/>
+      <c r="BM24" s="121"/>
+      <c r="BN24" s="121"/>
+      <c r="BO24" s="155"/>
+      <c r="BP24" s="154"/>
+      <c r="BQ24" s="121"/>
+      <c r="BR24" s="121"/>
+      <c r="BS24" s="204"/>
+      <c r="BT24" s="40"/>
+      <c r="BU24" s="40"/>
+      <c r="BV24" s="40"/>
+      <c r="BW24" s="40"/>
+      <c r="BX24" s="40"/>
+      <c r="BY24" s="230"/>
+      <c r="BZ24" s="231"/>
+      <c r="CA24" s="231"/>
+      <c r="CB24" s="231"/>
+      <c r="CC24" s="231"/>
+      <c r="CD24" s="231"/>
+      <c r="CE24" s="231"/>
+      <c r="CF24" s="231"/>
+      <c r="CG24" s="231"/>
+      <c r="CH24" s="231"/>
+      <c r="CI24" s="231"/>
+      <c r="CJ24" s="231"/>
+      <c r="CK24" s="231"/>
+      <c r="CL24" s="262"/>
     </row>
     <row r="25" spans="1:90">
       <c r="A25" s="1"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="108"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="136"/>
-      <c r="AJ25" s="137"/>
-      <c r="AK25" s="137"/>
-      <c r="AL25" s="137"/>
-      <c r="AM25" s="137"/>
-      <c r="AN25" s="137"/>
-      <c r="AO25" s="137"/>
-      <c r="AP25" s="137"/>
-      <c r="AQ25" s="150"/>
-      <c r="AR25" s="137"/>
-      <c r="AS25" s="137"/>
-      <c r="AT25" s="137"/>
-      <c r="AU25" s="137"/>
-      <c r="AV25" s="137"/>
-      <c r="AW25" s="137"/>
-      <c r="AX25" s="137"/>
-      <c r="AY25" s="137"/>
-      <c r="AZ25" s="137"/>
-      <c r="BA25" s="137"/>
-      <c r="BB25" s="137"/>
-      <c r="BC25" s="137"/>
-      <c r="BD25" s="137"/>
-      <c r="BE25" s="137"/>
-      <c r="BF25" s="137"/>
-      <c r="BG25" s="137"/>
-      <c r="BH25" s="137"/>
-      <c r="BI25" s="137"/>
-      <c r="BJ25" s="137"/>
-      <c r="BK25" s="137"/>
-      <c r="BL25" s="137"/>
-      <c r="BM25" s="137"/>
-      <c r="BN25" s="137"/>
-      <c r="BO25" s="137"/>
-      <c r="BP25" s="137"/>
-      <c r="BQ25" s="137"/>
-      <c r="BR25" s="137"/>
-      <c r="BS25" s="185"/>
-      <c r="BT25" s="38"/>
-      <c r="BU25" s="8"/>
-      <c r="BV25" s="8"/>
-      <c r="BW25" s="8"/>
-      <c r="BX25" s="206"/>
-      <c r="BY25" s="215"/>
-      <c r="BZ25" s="110"/>
-      <c r="CA25" s="110"/>
-      <c r="CB25" s="110"/>
-      <c r="CC25" s="110"/>
-      <c r="CD25" s="110"/>
-      <c r="CE25" s="110"/>
-      <c r="CF25" s="110"/>
-      <c r="CG25" s="110"/>
-      <c r="CH25" s="110"/>
-      <c r="CI25" s="110"/>
-      <c r="CJ25" s="110"/>
-      <c r="CK25" s="110"/>
-      <c r="CL25" s="243"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="122"/>
+      <c r="AG25" s="152"/>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="153"/>
+      <c r="AJ25" s="154"/>
+      <c r="AK25" s="121"/>
+      <c r="AL25" s="121"/>
+      <c r="AM25" s="155"/>
+      <c r="AN25" s="154"/>
+      <c r="AO25" s="121"/>
+      <c r="AP25" s="121"/>
+      <c r="AQ25" s="121"/>
+      <c r="AR25" s="154"/>
+      <c r="AS25" s="121"/>
+      <c r="AT25" s="121"/>
+      <c r="AU25" s="155"/>
+      <c r="AV25" s="154"/>
+      <c r="AW25" s="121"/>
+      <c r="AX25" s="121"/>
+      <c r="AY25" s="155"/>
+      <c r="AZ25" s="154"/>
+      <c r="BA25" s="121"/>
+      <c r="BB25" s="121"/>
+      <c r="BC25" s="155"/>
+      <c r="BD25" s="154"/>
+      <c r="BE25" s="121"/>
+      <c r="BF25" s="121"/>
+      <c r="BG25" s="155"/>
+      <c r="BH25" s="154"/>
+      <c r="BI25" s="121"/>
+      <c r="BJ25" s="121"/>
+      <c r="BK25" s="155"/>
+      <c r="BL25" s="154"/>
+      <c r="BM25" s="121"/>
+      <c r="BN25" s="121"/>
+      <c r="BO25" s="155"/>
+      <c r="BP25" s="154"/>
+      <c r="BQ25" s="121"/>
+      <c r="BR25" s="121"/>
+      <c r="BS25" s="204"/>
+      <c r="BT25" s="40"/>
+      <c r="BU25" s="40"/>
+      <c r="BV25" s="40"/>
+      <c r="BW25" s="40"/>
+      <c r="BX25" s="40"/>
+      <c r="BY25" s="230"/>
+      <c r="BZ25" s="231"/>
+      <c r="CA25" s="231"/>
+      <c r="CB25" s="231"/>
+      <c r="CC25" s="231"/>
+      <c r="CD25" s="231"/>
+      <c r="CE25" s="231"/>
+      <c r="CF25" s="231"/>
+      <c r="CG25" s="231"/>
+      <c r="CH25" s="231"/>
+      <c r="CI25" s="231"/>
+      <c r="CJ25" s="231"/>
+      <c r="CK25" s="231"/>
+      <c r="CL25" s="262"/>
     </row>
     <row r="26" spans="1:90">
       <c r="A26" s="1"/>
@@ -8638,79 +8730,79 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="108"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="136"/>
-      <c r="AJ26" s="137"/>
-      <c r="AK26" s="137"/>
-      <c r="AL26" s="137"/>
-      <c r="AM26" s="137"/>
-      <c r="AN26" s="137"/>
-      <c r="AO26" s="137"/>
-      <c r="AP26" s="137"/>
-      <c r="AQ26" s="150"/>
-      <c r="AR26" s="137"/>
-      <c r="AS26" s="137"/>
-      <c r="AT26" s="137"/>
-      <c r="AU26" s="137"/>
-      <c r="AV26" s="137"/>
-      <c r="AW26" s="137"/>
-      <c r="AX26" s="137"/>
-      <c r="AY26" s="137"/>
-      <c r="AZ26" s="137"/>
-      <c r="BA26" s="137"/>
-      <c r="BB26" s="137"/>
-      <c r="BC26" s="137"/>
-      <c r="BD26" s="137"/>
-      <c r="BE26" s="137"/>
-      <c r="BF26" s="137"/>
-      <c r="BG26" s="137"/>
-      <c r="BH26" s="137"/>
-      <c r="BI26" s="137"/>
-      <c r="BJ26" s="137"/>
-      <c r="BK26" s="137"/>
-      <c r="BL26" s="137"/>
-      <c r="BM26" s="137"/>
-      <c r="BN26" s="137"/>
-      <c r="BO26" s="137"/>
-      <c r="BP26" s="137"/>
-      <c r="BQ26" s="137"/>
-      <c r="BR26" s="137"/>
-      <c r="BS26" s="185"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="114"/>
+      <c r="AD26" s="115"/>
+      <c r="AE26" s="116"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="150"/>
+      <c r="AJ26" s="151"/>
+      <c r="AK26" s="151"/>
+      <c r="AL26" s="151"/>
+      <c r="AM26" s="151"/>
+      <c r="AN26" s="151"/>
+      <c r="AO26" s="151"/>
+      <c r="AP26" s="151"/>
+      <c r="AQ26" s="168"/>
+      <c r="AR26" s="168"/>
+      <c r="AS26" s="124"/>
+      <c r="AT26" s="124"/>
+      <c r="AU26" s="169"/>
+      <c r="AV26" s="151"/>
+      <c r="AW26" s="151"/>
+      <c r="AX26" s="151"/>
+      <c r="AY26" s="151"/>
+      <c r="AZ26" s="151"/>
+      <c r="BA26" s="151"/>
+      <c r="BB26" s="151"/>
+      <c r="BC26" s="151"/>
+      <c r="BD26" s="151"/>
+      <c r="BE26" s="151"/>
+      <c r="BF26" s="151"/>
+      <c r="BG26" s="151"/>
+      <c r="BH26" s="151"/>
+      <c r="BI26" s="151"/>
+      <c r="BJ26" s="151"/>
+      <c r="BK26" s="151"/>
+      <c r="BL26" s="151"/>
+      <c r="BM26" s="151"/>
+      <c r="BN26" s="151"/>
+      <c r="BO26" s="151"/>
+      <c r="BP26" s="151"/>
+      <c r="BQ26" s="151"/>
+      <c r="BR26" s="151"/>
+      <c r="BS26" s="203"/>
       <c r="BT26" s="38"/>
       <c r="BU26" s="8"/>
       <c r="BV26" s="8"/>
       <c r="BW26" s="8"/>
-      <c r="BX26" s="206"/>
-      <c r="BY26" s="216"/>
-      <c r="BZ26" s="217"/>
-      <c r="CA26" s="217"/>
-      <c r="CB26" s="217"/>
-      <c r="CC26" s="217"/>
-      <c r="CD26" s="217"/>
-      <c r="CE26" s="217"/>
-      <c r="CF26" s="217"/>
-      <c r="CG26" s="217"/>
-      <c r="CH26" s="217"/>
-      <c r="CI26" s="217"/>
-      <c r="CJ26" s="217"/>
-      <c r="CK26" s="217"/>
-      <c r="CL26" s="244"/>
+      <c r="BX26" s="225"/>
+      <c r="BY26" s="217"/>
+      <c r="BZ26" s="218"/>
+      <c r="CA26" s="218"/>
+      <c r="CB26" s="218"/>
+      <c r="CC26" s="218"/>
+      <c r="CD26" s="218"/>
+      <c r="CE26" s="218"/>
+      <c r="CF26" s="218"/>
+      <c r="CG26" s="218"/>
+      <c r="CH26" s="218"/>
+      <c r="CI26" s="218"/>
+      <c r="CJ26" s="218"/>
+      <c r="CK26" s="218"/>
+      <c r="CL26" s="257"/>
     </row>
     <row r="27" spans="1:90">
       <c r="A27" s="1"/>
@@ -8730,79 +8822,79 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="107"/>
-      <c r="AE27" s="108"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="136"/>
-      <c r="AJ27" s="137"/>
-      <c r="AK27" s="137"/>
-      <c r="AL27" s="137"/>
-      <c r="AM27" s="137"/>
-      <c r="AN27" s="137"/>
-      <c r="AO27" s="137"/>
-      <c r="AP27" s="137"/>
-      <c r="AQ27" s="150"/>
-      <c r="AR27" s="137"/>
-      <c r="AS27" s="137"/>
-      <c r="AT27" s="137"/>
-      <c r="AU27" s="137"/>
-      <c r="AV27" s="137"/>
-      <c r="AW27" s="137"/>
-      <c r="AX27" s="137"/>
-      <c r="AY27" s="137"/>
-      <c r="AZ27" s="137"/>
-      <c r="BA27" s="137"/>
-      <c r="BB27" s="137"/>
-      <c r="BC27" s="137"/>
-      <c r="BD27" s="137"/>
-      <c r="BE27" s="137"/>
-      <c r="BF27" s="137"/>
-      <c r="BG27" s="137"/>
-      <c r="BH27" s="137"/>
-      <c r="BI27" s="137"/>
-      <c r="BJ27" s="137"/>
-      <c r="BK27" s="137"/>
-      <c r="BL27" s="137"/>
-      <c r="BM27" s="137"/>
-      <c r="BN27" s="137"/>
-      <c r="BO27" s="137"/>
-      <c r="BP27" s="137"/>
-      <c r="BQ27" s="137"/>
-      <c r="BR27" s="137"/>
-      <c r="BS27" s="185"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="123"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="125"/>
+      <c r="AD27" s="115"/>
+      <c r="AE27" s="116"/>
+      <c r="AF27" s="116"/>
+      <c r="AG27" s="116"/>
+      <c r="AH27" s="116"/>
+      <c r="AI27" s="150"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
+      <c r="AQ27" s="168"/>
+      <c r="AR27" s="151"/>
+      <c r="AS27" s="151"/>
+      <c r="AT27" s="151"/>
+      <c r="AU27" s="151"/>
+      <c r="AV27" s="151"/>
+      <c r="AW27" s="151"/>
+      <c r="AX27" s="151"/>
+      <c r="AY27" s="151"/>
+      <c r="AZ27" s="151"/>
+      <c r="BA27" s="151"/>
+      <c r="BB27" s="151"/>
+      <c r="BC27" s="151"/>
+      <c r="BD27" s="151"/>
+      <c r="BE27" s="151"/>
+      <c r="BF27" s="151"/>
+      <c r="BG27" s="151"/>
+      <c r="BH27" s="151"/>
+      <c r="BI27" s="151"/>
+      <c r="BJ27" s="151"/>
+      <c r="BK27" s="151"/>
+      <c r="BL27" s="151"/>
+      <c r="BM27" s="151"/>
+      <c r="BN27" s="151"/>
+      <c r="BO27" s="151"/>
+      <c r="BP27" s="151"/>
+      <c r="BQ27" s="151"/>
+      <c r="BR27" s="151"/>
+      <c r="BS27" s="203"/>
       <c r="BT27" s="38"/>
       <c r="BU27" s="8"/>
       <c r="BV27" s="8"/>
       <c r="BW27" s="8"/>
-      <c r="BX27" s="206"/>
-      <c r="BY27" s="218"/>
-      <c r="BZ27" s="219"/>
-      <c r="CA27" s="219"/>
-      <c r="CB27" s="219"/>
-      <c r="CC27" s="219"/>
-      <c r="CD27" s="219"/>
-      <c r="CE27" s="219"/>
-      <c r="CF27" s="219"/>
-      <c r="CG27" s="219"/>
-      <c r="CH27" s="219"/>
-      <c r="CI27" s="219"/>
-      <c r="CJ27" s="219"/>
-      <c r="CK27" s="219"/>
-      <c r="CL27" s="245"/>
+      <c r="BX27" s="225"/>
+      <c r="BY27" s="232"/>
+      <c r="BZ27" s="233"/>
+      <c r="CA27" s="233"/>
+      <c r="CB27" s="233"/>
+      <c r="CC27" s="233"/>
+      <c r="CD27" s="233"/>
+      <c r="CE27" s="233"/>
+      <c r="CF27" s="233"/>
+      <c r="CG27" s="233"/>
+      <c r="CH27" s="233"/>
+      <c r="CI27" s="233"/>
+      <c r="CJ27" s="233"/>
+      <c r="CK27" s="233"/>
+      <c r="CL27" s="263"/>
     </row>
     <row r="28" spans="1:90">
       <c r="A28" s="1"/>
@@ -8822,79 +8914,79 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="108"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="136"/>
-      <c r="AJ28" s="137"/>
-      <c r="AK28" s="137"/>
-      <c r="AL28" s="137"/>
-      <c r="AM28" s="137"/>
-      <c r="AN28" s="137"/>
-      <c r="AO28" s="137"/>
-      <c r="AP28" s="137"/>
-      <c r="AQ28" s="150"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="137"/>
-      <c r="AX28" s="137"/>
-      <c r="AY28" s="137"/>
-      <c r="AZ28" s="137"/>
-      <c r="BA28" s="137"/>
-      <c r="BB28" s="137"/>
-      <c r="BC28" s="137"/>
-      <c r="BD28" s="137"/>
-      <c r="BE28" s="137"/>
-      <c r="BF28" s="137"/>
-      <c r="BG28" s="137"/>
-      <c r="BH28" s="137"/>
-      <c r="BI28" s="137"/>
-      <c r="BJ28" s="137"/>
-      <c r="BK28" s="137"/>
-      <c r="BL28" s="137"/>
-      <c r="BM28" s="137"/>
-      <c r="BN28" s="137"/>
-      <c r="BO28" s="137"/>
-      <c r="BP28" s="137"/>
-      <c r="BQ28" s="137"/>
-      <c r="BR28" s="137"/>
-      <c r="BS28" s="185"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="123"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="125"/>
+      <c r="AD28" s="115"/>
+      <c r="AE28" s="116"/>
+      <c r="AF28" s="116"/>
+      <c r="AG28" s="116"/>
+      <c r="AH28" s="116"/>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="151"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="151"/>
+      <c r="AM28" s="151"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
+      <c r="AQ28" s="168"/>
+      <c r="AR28" s="151"/>
+      <c r="AS28" s="151"/>
+      <c r="AT28" s="151"/>
+      <c r="AU28" s="151"/>
+      <c r="AV28" s="151"/>
+      <c r="AW28" s="151"/>
+      <c r="AX28" s="151"/>
+      <c r="AY28" s="151"/>
+      <c r="AZ28" s="151"/>
+      <c r="BA28" s="151"/>
+      <c r="BB28" s="151"/>
+      <c r="BC28" s="151"/>
+      <c r="BD28" s="151"/>
+      <c r="BE28" s="151"/>
+      <c r="BF28" s="151"/>
+      <c r="BG28" s="151"/>
+      <c r="BH28" s="151"/>
+      <c r="BI28" s="151"/>
+      <c r="BJ28" s="151"/>
+      <c r="BK28" s="151"/>
+      <c r="BL28" s="151"/>
+      <c r="BM28" s="151"/>
+      <c r="BN28" s="151"/>
+      <c r="BO28" s="151"/>
+      <c r="BP28" s="151"/>
+      <c r="BQ28" s="151"/>
+      <c r="BR28" s="151"/>
+      <c r="BS28" s="203"/>
       <c r="BT28" s="38"/>
       <c r="BU28" s="8"/>
       <c r="BV28" s="8"/>
       <c r="BW28" s="8"/>
-      <c r="BX28" s="206"/>
-      <c r="BY28" s="220"/>
-      <c r="BZ28" s="221"/>
-      <c r="CA28" s="221"/>
-      <c r="CB28" s="221"/>
-      <c r="CC28" s="221"/>
-      <c r="CD28" s="221"/>
-      <c r="CE28" s="221"/>
-      <c r="CF28" s="221"/>
-      <c r="CG28" s="221"/>
-      <c r="CH28" s="221"/>
-      <c r="CI28" s="221"/>
-      <c r="CJ28" s="221"/>
-      <c r="CK28" s="221"/>
-      <c r="CL28" s="246"/>
+      <c r="BX28" s="225"/>
+      <c r="BY28" s="234"/>
+      <c r="BZ28" s="235"/>
+      <c r="CA28" s="235"/>
+      <c r="CB28" s="235"/>
+      <c r="CC28" s="235"/>
+      <c r="CD28" s="235"/>
+      <c r="CE28" s="235"/>
+      <c r="CF28" s="235"/>
+      <c r="CG28" s="235"/>
+      <c r="CH28" s="235"/>
+      <c r="CI28" s="235"/>
+      <c r="CJ28" s="235"/>
+      <c r="CK28" s="235"/>
+      <c r="CL28" s="264"/>
     </row>
     <row r="29" spans="1:90">
       <c r="A29" s="1"/>
@@ -8914,79 +9006,79 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="108"/>
-      <c r="AF29" s="108"/>
-      <c r="AG29" s="108"/>
-      <c r="AH29" s="108"/>
-      <c r="AI29" s="136"/>
-      <c r="AJ29" s="137"/>
-      <c r="AK29" s="137"/>
-      <c r="AL29" s="137"/>
-      <c r="AM29" s="137"/>
-      <c r="AN29" s="137"/>
-      <c r="AO29" s="137"/>
-      <c r="AP29" s="137"/>
-      <c r="AQ29" s="150"/>
-      <c r="AR29" s="137"/>
-      <c r="AS29" s="137"/>
-      <c r="AT29" s="137"/>
-      <c r="AU29" s="137"/>
-      <c r="AV29" s="137"/>
-      <c r="AW29" s="137"/>
-      <c r="AX29" s="137"/>
-      <c r="AY29" s="137"/>
-      <c r="AZ29" s="137"/>
-      <c r="BA29" s="137"/>
-      <c r="BB29" s="137"/>
-      <c r="BC29" s="137"/>
-      <c r="BD29" s="137"/>
-      <c r="BE29" s="137"/>
-      <c r="BF29" s="137"/>
-      <c r="BG29" s="137"/>
-      <c r="BH29" s="137"/>
-      <c r="BI29" s="137"/>
-      <c r="BJ29" s="137"/>
-      <c r="BK29" s="137"/>
-      <c r="BL29" s="137"/>
-      <c r="BM29" s="137"/>
-      <c r="BN29" s="137"/>
-      <c r="BO29" s="137"/>
-      <c r="BP29" s="137"/>
-      <c r="BQ29" s="137"/>
-      <c r="BR29" s="137"/>
-      <c r="BS29" s="185"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="125"/>
+      <c r="AD29" s="115"/>
+      <c r="AE29" s="116"/>
+      <c r="AF29" s="116"/>
+      <c r="AG29" s="116"/>
+      <c r="AH29" s="116"/>
+      <c r="AI29" s="150"/>
+      <c r="AJ29" s="151"/>
+      <c r="AK29" s="151"/>
+      <c r="AL29" s="151"/>
+      <c r="AM29" s="151"/>
+      <c r="AN29" s="151"/>
+      <c r="AO29" s="151"/>
+      <c r="AP29" s="151"/>
+      <c r="AQ29" s="168"/>
+      <c r="AR29" s="151"/>
+      <c r="AS29" s="151"/>
+      <c r="AT29" s="151"/>
+      <c r="AU29" s="151"/>
+      <c r="AV29" s="151"/>
+      <c r="AW29" s="151"/>
+      <c r="AX29" s="151"/>
+      <c r="AY29" s="151"/>
+      <c r="AZ29" s="151"/>
+      <c r="BA29" s="151"/>
+      <c r="BB29" s="151"/>
+      <c r="BC29" s="151"/>
+      <c r="BD29" s="151"/>
+      <c r="BE29" s="151"/>
+      <c r="BF29" s="151"/>
+      <c r="BG29" s="151"/>
+      <c r="BH29" s="151"/>
+      <c r="BI29" s="151"/>
+      <c r="BJ29" s="151"/>
+      <c r="BK29" s="151"/>
+      <c r="BL29" s="151"/>
+      <c r="BM29" s="151"/>
+      <c r="BN29" s="151"/>
+      <c r="BO29" s="151"/>
+      <c r="BP29" s="151"/>
+      <c r="BQ29" s="151"/>
+      <c r="BR29" s="151"/>
+      <c r="BS29" s="203"/>
       <c r="BT29" s="38"/>
       <c r="BU29" s="8"/>
       <c r="BV29" s="8"/>
       <c r="BW29" s="8"/>
-      <c r="BX29" s="206"/>
-      <c r="BY29" s="222"/>
-      <c r="BZ29" s="223"/>
-      <c r="CA29" s="223"/>
-      <c r="CB29" s="223"/>
-      <c r="CC29" s="223"/>
-      <c r="CD29" s="223"/>
-      <c r="CE29" s="223"/>
-      <c r="CF29" s="223"/>
-      <c r="CG29" s="223"/>
-      <c r="CH29" s="223"/>
-      <c r="CI29" s="223"/>
-      <c r="CJ29" s="223"/>
-      <c r="CK29" s="223"/>
-      <c r="CL29" s="247"/>
+      <c r="BX29" s="225"/>
+      <c r="BY29" s="236"/>
+      <c r="BZ29" s="124"/>
+      <c r="CA29" s="124"/>
+      <c r="CB29" s="124"/>
+      <c r="CC29" s="124"/>
+      <c r="CD29" s="124"/>
+      <c r="CE29" s="124"/>
+      <c r="CF29" s="124"/>
+      <c r="CG29" s="124"/>
+      <c r="CH29" s="124"/>
+      <c r="CI29" s="124"/>
+      <c r="CJ29" s="124"/>
+      <c r="CK29" s="124"/>
+      <c r="CL29" s="265"/>
     </row>
     <row r="30" spans="1:90">
       <c r="A30" s="1"/>
@@ -9006,79 +9098,79 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="107"/>
-      <c r="AE30" s="108"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="136"/>
-      <c r="AJ30" s="137"/>
-      <c r="AK30" s="137"/>
-      <c r="AL30" s="137"/>
-      <c r="AM30" s="137"/>
-      <c r="AN30" s="137"/>
-      <c r="AO30" s="137"/>
-      <c r="AP30" s="137"/>
-      <c r="AQ30" s="150"/>
-      <c r="AR30" s="137"/>
-      <c r="AS30" s="137"/>
-      <c r="AT30" s="137"/>
-      <c r="AU30" s="137"/>
-      <c r="AV30" s="137"/>
-      <c r="AW30" s="137"/>
-      <c r="AX30" s="137"/>
-      <c r="AY30" s="137"/>
-      <c r="AZ30" s="137"/>
-      <c r="BA30" s="137"/>
-      <c r="BB30" s="137"/>
-      <c r="BC30" s="137"/>
-      <c r="BD30" s="137"/>
-      <c r="BE30" s="137"/>
-      <c r="BF30" s="137"/>
-      <c r="BG30" s="137"/>
-      <c r="BH30" s="137"/>
-      <c r="BI30" s="137"/>
-      <c r="BJ30" s="137"/>
-      <c r="BK30" s="137"/>
-      <c r="BL30" s="137"/>
-      <c r="BM30" s="137"/>
-      <c r="BN30" s="137"/>
-      <c r="BO30" s="137"/>
-      <c r="BP30" s="137"/>
-      <c r="BQ30" s="137"/>
-      <c r="BR30" s="137"/>
-      <c r="BS30" s="185"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="123"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="125"/>
+      <c r="AD30" s="115"/>
+      <c r="AE30" s="116"/>
+      <c r="AF30" s="116"/>
+      <c r="AG30" s="116"/>
+      <c r="AH30" s="116"/>
+      <c r="AI30" s="150"/>
+      <c r="AJ30" s="151"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="151"/>
+      <c r="AM30" s="151"/>
+      <c r="AN30" s="151"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="151"/>
+      <c r="AQ30" s="168"/>
+      <c r="AR30" s="151"/>
+      <c r="AS30" s="151"/>
+      <c r="AT30" s="151"/>
+      <c r="AU30" s="151"/>
+      <c r="AV30" s="151"/>
+      <c r="AW30" s="151"/>
+      <c r="AX30" s="151"/>
+      <c r="AY30" s="151"/>
+      <c r="AZ30" s="151"/>
+      <c r="BA30" s="151"/>
+      <c r="BB30" s="151"/>
+      <c r="BC30" s="151"/>
+      <c r="BD30" s="151"/>
+      <c r="BE30" s="151"/>
+      <c r="BF30" s="151"/>
+      <c r="BG30" s="151"/>
+      <c r="BH30" s="151"/>
+      <c r="BI30" s="151"/>
+      <c r="BJ30" s="151"/>
+      <c r="BK30" s="151"/>
+      <c r="BL30" s="151"/>
+      <c r="BM30" s="151"/>
+      <c r="BN30" s="151"/>
+      <c r="BO30" s="151"/>
+      <c r="BP30" s="151"/>
+      <c r="BQ30" s="151"/>
+      <c r="BR30" s="151"/>
+      <c r="BS30" s="203"/>
       <c r="BT30" s="38"/>
       <c r="BU30" s="8"/>
       <c r="BV30" s="8"/>
       <c r="BW30" s="8"/>
-      <c r="BX30" s="206"/>
-      <c r="BY30" s="198"/>
-      <c r="BZ30" s="199"/>
-      <c r="CA30" s="199"/>
-      <c r="CB30" s="199"/>
-      <c r="CC30" s="199"/>
-      <c r="CD30" s="199"/>
-      <c r="CE30" s="199"/>
-      <c r="CF30" s="199"/>
-      <c r="CG30" s="199"/>
-      <c r="CH30" s="199"/>
-      <c r="CI30" s="199"/>
-      <c r="CJ30" s="199"/>
-      <c r="CK30" s="199"/>
-      <c r="CL30" s="236"/>
+      <c r="BX30" s="225"/>
+      <c r="BY30" s="234"/>
+      <c r="BZ30" s="235"/>
+      <c r="CA30" s="235"/>
+      <c r="CB30" s="235"/>
+      <c r="CC30" s="235"/>
+      <c r="CD30" s="235"/>
+      <c r="CE30" s="235"/>
+      <c r="CF30" s="235"/>
+      <c r="CG30" s="235"/>
+      <c r="CH30" s="235"/>
+      <c r="CI30" s="235"/>
+      <c r="CJ30" s="235"/>
+      <c r="CK30" s="235"/>
+      <c r="CL30" s="264"/>
     </row>
     <row r="31" spans="1:90">
       <c r="A31" s="1"/>
@@ -9098,79 +9190,79 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="107"/>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="136"/>
-      <c r="AJ31" s="137"/>
-      <c r="AK31" s="137"/>
-      <c r="AL31" s="137"/>
-      <c r="AM31" s="137"/>
-      <c r="AN31" s="137"/>
-      <c r="AO31" s="137"/>
-      <c r="AP31" s="137"/>
-      <c r="AQ31" s="150"/>
-      <c r="AR31" s="137"/>
-      <c r="AS31" s="137"/>
-      <c r="AT31" s="137"/>
-      <c r="AU31" s="137"/>
-      <c r="AV31" s="137"/>
-      <c r="AW31" s="137"/>
-      <c r="AX31" s="137"/>
-      <c r="AY31" s="137"/>
-      <c r="AZ31" s="137"/>
-      <c r="BA31" s="137"/>
-      <c r="BB31" s="137"/>
-      <c r="BC31" s="137"/>
-      <c r="BD31" s="137"/>
-      <c r="BE31" s="137"/>
-      <c r="BF31" s="137"/>
-      <c r="BG31" s="137"/>
-      <c r="BH31" s="137"/>
-      <c r="BI31" s="137"/>
-      <c r="BJ31" s="137"/>
-      <c r="BK31" s="137"/>
-      <c r="BL31" s="137"/>
-      <c r="BM31" s="137"/>
-      <c r="BN31" s="137"/>
-      <c r="BO31" s="137"/>
-      <c r="BP31" s="137"/>
-      <c r="BQ31" s="137"/>
-      <c r="BR31" s="137"/>
-      <c r="BS31" s="185"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="123"/>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="125"/>
+      <c r="AD31" s="115"/>
+      <c r="AE31" s="116"/>
+      <c r="AF31" s="116"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="150"/>
+      <c r="AJ31" s="151"/>
+      <c r="AK31" s="151"/>
+      <c r="AL31" s="151"/>
+      <c r="AM31" s="151"/>
+      <c r="AN31" s="151"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
+      <c r="AQ31" s="168"/>
+      <c r="AR31" s="151"/>
+      <c r="AS31" s="151"/>
+      <c r="AT31" s="151"/>
+      <c r="AU31" s="151"/>
+      <c r="AV31" s="151"/>
+      <c r="AW31" s="151"/>
+      <c r="AX31" s="151"/>
+      <c r="AY31" s="151"/>
+      <c r="AZ31" s="151"/>
+      <c r="BA31" s="151"/>
+      <c r="BB31" s="151"/>
+      <c r="BC31" s="151"/>
+      <c r="BD31" s="151"/>
+      <c r="BE31" s="151"/>
+      <c r="BF31" s="151"/>
+      <c r="BG31" s="151"/>
+      <c r="BH31" s="151"/>
+      <c r="BI31" s="151"/>
+      <c r="BJ31" s="151"/>
+      <c r="BK31" s="151"/>
+      <c r="BL31" s="151"/>
+      <c r="BM31" s="151"/>
+      <c r="BN31" s="151"/>
+      <c r="BO31" s="151"/>
+      <c r="BP31" s="151"/>
+      <c r="BQ31" s="151"/>
+      <c r="BR31" s="151"/>
+      <c r="BS31" s="203"/>
       <c r="BT31" s="38"/>
       <c r="BU31" s="8"/>
       <c r="BV31" s="8"/>
       <c r="BW31" s="8"/>
-      <c r="BX31" s="206"/>
-      <c r="BY31" s="198"/>
-      <c r="BZ31" s="199"/>
-      <c r="CA31" s="199"/>
-      <c r="CB31" s="199"/>
-      <c r="CC31" s="199"/>
-      <c r="CD31" s="199"/>
-      <c r="CE31" s="199"/>
-      <c r="CF31" s="199"/>
-      <c r="CG31" s="199"/>
-      <c r="CH31" s="199"/>
-      <c r="CI31" s="199"/>
-      <c r="CJ31" s="199"/>
-      <c r="CK31" s="199"/>
-      <c r="CL31" s="236"/>
+      <c r="BX31" s="225"/>
+      <c r="BY31" s="236"/>
+      <c r="BZ31" s="124"/>
+      <c r="CA31" s="124"/>
+      <c r="CB31" s="124"/>
+      <c r="CC31" s="124"/>
+      <c r="CD31" s="124"/>
+      <c r="CE31" s="124"/>
+      <c r="CF31" s="124"/>
+      <c r="CG31" s="124"/>
+      <c r="CH31" s="124"/>
+      <c r="CI31" s="124"/>
+      <c r="CJ31" s="124"/>
+      <c r="CK31" s="124"/>
+      <c r="CL31" s="265"/>
     </row>
     <row r="32" spans="1:90">
       <c r="A32" s="1"/>
@@ -9190,79 +9282,79 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="136"/>
-      <c r="AJ32" s="137"/>
-      <c r="AK32" s="137"/>
-      <c r="AL32" s="137"/>
-      <c r="AM32" s="137"/>
-      <c r="AN32" s="137"/>
-      <c r="AO32" s="137"/>
-      <c r="AP32" s="137"/>
-      <c r="AQ32" s="150"/>
-      <c r="AR32" s="137"/>
-      <c r="AS32" s="137"/>
-      <c r="AT32" s="137"/>
-      <c r="AU32" s="137"/>
-      <c r="AV32" s="137"/>
-      <c r="AW32" s="137"/>
-      <c r="AX32" s="137"/>
-      <c r="AY32" s="137"/>
-      <c r="AZ32" s="137"/>
-      <c r="BA32" s="137"/>
-      <c r="BB32" s="137"/>
-      <c r="BC32" s="137"/>
-      <c r="BD32" s="137"/>
-      <c r="BE32" s="137"/>
-      <c r="BF32" s="137"/>
-      <c r="BG32" s="137"/>
-      <c r="BH32" s="137"/>
-      <c r="BI32" s="137"/>
-      <c r="BJ32" s="137"/>
-      <c r="BK32" s="137"/>
-      <c r="BL32" s="137"/>
-      <c r="BM32" s="137"/>
-      <c r="BN32" s="137"/>
-      <c r="BO32" s="137"/>
-      <c r="BP32" s="137"/>
-      <c r="BQ32" s="137"/>
-      <c r="BR32" s="137"/>
-      <c r="BS32" s="185"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="125"/>
+      <c r="AD32" s="115"/>
+      <c r="AE32" s="116"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="150"/>
+      <c r="AJ32" s="151"/>
+      <c r="AK32" s="151"/>
+      <c r="AL32" s="151"/>
+      <c r="AM32" s="151"/>
+      <c r="AN32" s="151"/>
+      <c r="AO32" s="151"/>
+      <c r="AP32" s="151"/>
+      <c r="AQ32" s="168"/>
+      <c r="AR32" s="151"/>
+      <c r="AS32" s="151"/>
+      <c r="AT32" s="151"/>
+      <c r="AU32" s="151"/>
+      <c r="AV32" s="151"/>
+      <c r="AW32" s="151"/>
+      <c r="AX32" s="151"/>
+      <c r="AY32" s="151"/>
+      <c r="AZ32" s="151"/>
+      <c r="BA32" s="151"/>
+      <c r="BB32" s="151"/>
+      <c r="BC32" s="151"/>
+      <c r="BD32" s="151"/>
+      <c r="BE32" s="151"/>
+      <c r="BF32" s="151"/>
+      <c r="BG32" s="151"/>
+      <c r="BH32" s="151"/>
+      <c r="BI32" s="151"/>
+      <c r="BJ32" s="151"/>
+      <c r="BK32" s="151"/>
+      <c r="BL32" s="151"/>
+      <c r="BM32" s="151"/>
+      <c r="BN32" s="151"/>
+      <c r="BO32" s="151"/>
+      <c r="BP32" s="151"/>
+      <c r="BQ32" s="151"/>
+      <c r="BR32" s="151"/>
+      <c r="BS32" s="203"/>
       <c r="BT32" s="38"/>
       <c r="BU32" s="8"/>
       <c r="BV32" s="8"/>
       <c r="BW32" s="8"/>
-      <c r="BX32" s="206"/>
-      <c r="BY32" s="198"/>
-      <c r="BZ32" s="199"/>
-      <c r="CA32" s="199"/>
-      <c r="CB32" s="199"/>
-      <c r="CC32" s="199"/>
-      <c r="CD32" s="199"/>
-      <c r="CE32" s="199"/>
-      <c r="CF32" s="199"/>
-      <c r="CG32" s="199"/>
-      <c r="CH32" s="199"/>
-      <c r="CI32" s="199"/>
-      <c r="CJ32" s="199"/>
-      <c r="CK32" s="199"/>
-      <c r="CL32" s="236"/>
+      <c r="BX32" s="225"/>
+      <c r="BY32" s="236"/>
+      <c r="BZ32" s="124"/>
+      <c r="CA32" s="124"/>
+      <c r="CB32" s="124"/>
+      <c r="CC32" s="124"/>
+      <c r="CD32" s="124"/>
+      <c r="CE32" s="124"/>
+      <c r="CF32" s="124"/>
+      <c r="CG32" s="124"/>
+      <c r="CH32" s="124"/>
+      <c r="CI32" s="124"/>
+      <c r="CJ32" s="124"/>
+      <c r="CK32" s="124"/>
+      <c r="CL32" s="265"/>
     </row>
     <row r="33" spans="1:90">
       <c r="A33" s="1"/>
@@ -9282,79 +9374,79 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="112"/>
-      <c r="AB33" s="112"/>
-      <c r="AC33" s="112"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="108"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="136"/>
-      <c r="AJ33" s="137"/>
-      <c r="AK33" s="137"/>
-      <c r="AL33" s="137"/>
-      <c r="AM33" s="137"/>
-      <c r="AN33" s="137"/>
-      <c r="AO33" s="137"/>
-      <c r="AP33" s="137"/>
-      <c r="AQ33" s="150"/>
-      <c r="AR33" s="137"/>
-      <c r="AS33" s="137"/>
-      <c r="AT33" s="137"/>
-      <c r="AU33" s="137"/>
-      <c r="AV33" s="137"/>
-      <c r="AW33" s="137"/>
-      <c r="AX33" s="137"/>
-      <c r="AY33" s="137"/>
-      <c r="AZ33" s="137"/>
-      <c r="BA33" s="137"/>
-      <c r="BB33" s="137"/>
-      <c r="BC33" s="137"/>
-      <c r="BD33" s="137"/>
-      <c r="BE33" s="137"/>
-      <c r="BF33" s="137"/>
-      <c r="BG33" s="137"/>
-      <c r="BH33" s="137"/>
-      <c r="BI33" s="137"/>
-      <c r="BJ33" s="137"/>
-      <c r="BK33" s="137"/>
-      <c r="BL33" s="137"/>
-      <c r="BM33" s="137"/>
-      <c r="BN33" s="137"/>
-      <c r="BO33" s="137"/>
-      <c r="BP33" s="137"/>
-      <c r="BQ33" s="137"/>
-      <c r="BR33" s="137"/>
-      <c r="BS33" s="185"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="123"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="125"/>
+      <c r="AD33" s="115"/>
+      <c r="AE33" s="116"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="150"/>
+      <c r="AJ33" s="151"/>
+      <c r="AK33" s="151"/>
+      <c r="AL33" s="151"/>
+      <c r="AM33" s="151"/>
+      <c r="AN33" s="151"/>
+      <c r="AO33" s="151"/>
+      <c r="AP33" s="151"/>
+      <c r="AQ33" s="168"/>
+      <c r="AR33" s="151"/>
+      <c r="AS33" s="151"/>
+      <c r="AT33" s="151"/>
+      <c r="AU33" s="151"/>
+      <c r="AV33" s="151"/>
+      <c r="AW33" s="151"/>
+      <c r="AX33" s="151"/>
+      <c r="AY33" s="151"/>
+      <c r="AZ33" s="151"/>
+      <c r="BA33" s="151"/>
+      <c r="BB33" s="151"/>
+      <c r="BC33" s="151"/>
+      <c r="BD33" s="151"/>
+      <c r="BE33" s="151"/>
+      <c r="BF33" s="151"/>
+      <c r="BG33" s="151"/>
+      <c r="BH33" s="151"/>
+      <c r="BI33" s="151"/>
+      <c r="BJ33" s="151"/>
+      <c r="BK33" s="151"/>
+      <c r="BL33" s="151"/>
+      <c r="BM33" s="151"/>
+      <c r="BN33" s="151"/>
+      <c r="BO33" s="151"/>
+      <c r="BP33" s="151"/>
+      <c r="BQ33" s="151"/>
+      <c r="BR33" s="151"/>
+      <c r="BS33" s="203"/>
       <c r="BT33" s="38"/>
       <c r="BU33" s="8"/>
       <c r="BV33" s="8"/>
       <c r="BW33" s="8"/>
-      <c r="BX33" s="206"/>
-      <c r="BY33" s="198"/>
-      <c r="BZ33" s="199"/>
-      <c r="CA33" s="199"/>
-      <c r="CB33" s="199"/>
-      <c r="CC33" s="199"/>
-      <c r="CD33" s="199"/>
-      <c r="CE33" s="199"/>
-      <c r="CF33" s="199"/>
-      <c r="CG33" s="199"/>
-      <c r="CH33" s="199"/>
-      <c r="CI33" s="199"/>
-      <c r="CJ33" s="199"/>
-      <c r="CK33" s="199"/>
-      <c r="CL33" s="236"/>
+      <c r="BX33" s="225"/>
+      <c r="BY33" s="237"/>
+      <c r="BZ33" s="238"/>
+      <c r="CA33" s="238"/>
+      <c r="CB33" s="238"/>
+      <c r="CC33" s="238"/>
+      <c r="CD33" s="238"/>
+      <c r="CE33" s="238"/>
+      <c r="CF33" s="238"/>
+      <c r="CG33" s="238"/>
+      <c r="CH33" s="238"/>
+      <c r="CI33" s="238"/>
+      <c r="CJ33" s="238"/>
+      <c r="CK33" s="238"/>
+      <c r="CL33" s="266"/>
     </row>
     <row r="34" spans="1:90">
       <c r="A34" s="1"/>
@@ -9374,79 +9466,79 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="112"/>
-      <c r="AB34" s="112"/>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="108"/>
-      <c r="AF34" s="108"/>
-      <c r="AG34" s="108"/>
-      <c r="AH34" s="108"/>
-      <c r="AI34" s="136"/>
-      <c r="AJ34" s="137"/>
-      <c r="AK34" s="137"/>
-      <c r="AL34" s="137"/>
-      <c r="AM34" s="137"/>
-      <c r="AN34" s="137"/>
-      <c r="AO34" s="137"/>
-      <c r="AP34" s="137"/>
-      <c r="AQ34" s="150"/>
-      <c r="AR34" s="137"/>
-      <c r="AS34" s="137"/>
-      <c r="AT34" s="137"/>
-      <c r="AU34" s="137"/>
-      <c r="AV34" s="137"/>
-      <c r="AW34" s="137"/>
-      <c r="AX34" s="137"/>
-      <c r="AY34" s="137"/>
-      <c r="AZ34" s="137"/>
-      <c r="BA34" s="137"/>
-      <c r="BB34" s="137"/>
-      <c r="BC34" s="137"/>
-      <c r="BD34" s="137"/>
-      <c r="BE34" s="137"/>
-      <c r="BF34" s="137"/>
-      <c r="BG34" s="137"/>
-      <c r="BH34" s="137"/>
-      <c r="BI34" s="137"/>
-      <c r="BJ34" s="137"/>
-      <c r="BK34" s="137"/>
-      <c r="BL34" s="137"/>
-      <c r="BM34" s="137"/>
-      <c r="BN34" s="137"/>
-      <c r="BO34" s="137"/>
-      <c r="BP34" s="137"/>
-      <c r="BQ34" s="137"/>
-      <c r="BR34" s="137"/>
-      <c r="BS34" s="185"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="123"/>
+      <c r="AA34" s="124"/>
+      <c r="AB34" s="124"/>
+      <c r="AC34" s="125"/>
+      <c r="AD34" s="115"/>
+      <c r="AE34" s="116"/>
+      <c r="AF34" s="116"/>
+      <c r="AG34" s="116"/>
+      <c r="AH34" s="116"/>
+      <c r="AI34" s="150"/>
+      <c r="AJ34" s="151"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="151"/>
+      <c r="AM34" s="151"/>
+      <c r="AN34" s="151"/>
+      <c r="AO34" s="151"/>
+      <c r="AP34" s="151"/>
+      <c r="AQ34" s="168"/>
+      <c r="AR34" s="151"/>
+      <c r="AS34" s="151"/>
+      <c r="AT34" s="151"/>
+      <c r="AU34" s="151"/>
+      <c r="AV34" s="151"/>
+      <c r="AW34" s="151"/>
+      <c r="AX34" s="151"/>
+      <c r="AY34" s="151"/>
+      <c r="AZ34" s="151"/>
+      <c r="BA34" s="151"/>
+      <c r="BB34" s="151"/>
+      <c r="BC34" s="151"/>
+      <c r="BD34" s="151"/>
+      <c r="BE34" s="151"/>
+      <c r="BF34" s="151"/>
+      <c r="BG34" s="151"/>
+      <c r="BH34" s="151"/>
+      <c r="BI34" s="151"/>
+      <c r="BJ34" s="151"/>
+      <c r="BK34" s="151"/>
+      <c r="BL34" s="151"/>
+      <c r="BM34" s="151"/>
+      <c r="BN34" s="151"/>
+      <c r="BO34" s="151"/>
+      <c r="BP34" s="151"/>
+      <c r="BQ34" s="151"/>
+      <c r="BR34" s="151"/>
+      <c r="BS34" s="203"/>
       <c r="BT34" s="38"/>
       <c r="BU34" s="8"/>
       <c r="BV34" s="8"/>
       <c r="BW34" s="8"/>
-      <c r="BX34" s="206"/>
-      <c r="BY34" s="198"/>
-      <c r="BZ34" s="199"/>
-      <c r="CA34" s="199"/>
-      <c r="CB34" s="199"/>
-      <c r="CC34" s="199"/>
-      <c r="CD34" s="199"/>
-      <c r="CE34" s="199"/>
-      <c r="CF34" s="199"/>
-      <c r="CG34" s="199"/>
-      <c r="CH34" s="199"/>
-      <c r="CI34" s="199"/>
-      <c r="CJ34" s="199"/>
-      <c r="CK34" s="199"/>
-      <c r="CL34" s="236"/>
+      <c r="BX34" s="225"/>
+      <c r="BY34" s="239"/>
+      <c r="BZ34" s="240"/>
+      <c r="CA34" s="240"/>
+      <c r="CB34" s="240"/>
+      <c r="CC34" s="240"/>
+      <c r="CD34" s="240"/>
+      <c r="CE34" s="240"/>
+      <c r="CF34" s="240"/>
+      <c r="CG34" s="240"/>
+      <c r="CH34" s="240"/>
+      <c r="CI34" s="240"/>
+      <c r="CJ34" s="240"/>
+      <c r="CK34" s="240"/>
+      <c r="CL34" s="267"/>
     </row>
     <row r="35" spans="1:90">
       <c r="A35" s="1"/>
@@ -9474,662 +9566,1306 @@
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="108"/>
-      <c r="AF35" s="108"/>
-      <c r="AG35" s="108"/>
-      <c r="AH35" s="108"/>
-      <c r="AI35" s="136"/>
-      <c r="AJ35" s="137"/>
-      <c r="AK35" s="137"/>
-      <c r="AL35" s="137"/>
-      <c r="AM35" s="137"/>
-      <c r="AN35" s="137"/>
-      <c r="AO35" s="137"/>
-      <c r="AP35" s="137"/>
-      <c r="AQ35" s="150"/>
-      <c r="AR35" s="137"/>
-      <c r="AS35" s="137"/>
-      <c r="AT35" s="137"/>
-      <c r="AU35" s="137"/>
-      <c r="AV35" s="137"/>
-      <c r="AW35" s="137"/>
-      <c r="AX35" s="137"/>
-      <c r="AY35" s="137"/>
-      <c r="AZ35" s="137"/>
-      <c r="BA35" s="137"/>
-      <c r="BB35" s="137"/>
-      <c r="BC35" s="137"/>
-      <c r="BD35" s="137"/>
-      <c r="BE35" s="137"/>
-      <c r="BF35" s="137"/>
-      <c r="BG35" s="137"/>
-      <c r="BH35" s="137"/>
-      <c r="BI35" s="137"/>
-      <c r="BJ35" s="137"/>
-      <c r="BK35" s="137"/>
-      <c r="BL35" s="137"/>
-      <c r="BM35" s="137"/>
-      <c r="BN35" s="137"/>
-      <c r="BO35" s="137"/>
-      <c r="BP35" s="137"/>
-      <c r="BQ35" s="137"/>
-      <c r="BR35" s="137"/>
-      <c r="BS35" s="185"/>
+      <c r="Z35" s="126"/>
+      <c r="AA35" s="126"/>
+      <c r="AB35" s="126"/>
+      <c r="AC35" s="126"/>
+      <c r="AD35" s="115"/>
+      <c r="AE35" s="116"/>
+      <c r="AF35" s="116"/>
+      <c r="AG35" s="116"/>
+      <c r="AH35" s="116"/>
+      <c r="AI35" s="150"/>
+      <c r="AJ35" s="151"/>
+      <c r="AK35" s="151"/>
+      <c r="AL35" s="151"/>
+      <c r="AM35" s="151"/>
+      <c r="AN35" s="151"/>
+      <c r="AO35" s="151"/>
+      <c r="AP35" s="151"/>
+      <c r="AQ35" s="168"/>
+      <c r="AR35" s="151"/>
+      <c r="AS35" s="151"/>
+      <c r="AT35" s="151"/>
+      <c r="AU35" s="151"/>
+      <c r="AV35" s="151"/>
+      <c r="AW35" s="151"/>
+      <c r="AX35" s="151"/>
+      <c r="AY35" s="151"/>
+      <c r="AZ35" s="151"/>
+      <c r="BA35" s="151"/>
+      <c r="BB35" s="151"/>
+      <c r="BC35" s="151"/>
+      <c r="BD35" s="151"/>
+      <c r="BE35" s="151"/>
+      <c r="BF35" s="151"/>
+      <c r="BG35" s="151"/>
+      <c r="BH35" s="151"/>
+      <c r="BI35" s="151"/>
+      <c r="BJ35" s="151"/>
+      <c r="BK35" s="151"/>
+      <c r="BL35" s="151"/>
+      <c r="BM35" s="151"/>
+      <c r="BN35" s="151"/>
+      <c r="BO35" s="151"/>
+      <c r="BP35" s="151"/>
+      <c r="BQ35" s="151"/>
+      <c r="BR35" s="151"/>
+      <c r="BS35" s="203"/>
       <c r="BT35" s="38"/>
       <c r="BU35" s="8"/>
       <c r="BV35" s="8"/>
       <c r="BW35" s="8"/>
-      <c r="BX35" s="206"/>
-      <c r="BY35" s="198"/>
-      <c r="BZ35" s="199"/>
-      <c r="CA35" s="199"/>
-      <c r="CB35" s="199"/>
-      <c r="CC35" s="199"/>
-      <c r="CD35" s="199"/>
-      <c r="CE35" s="199"/>
-      <c r="CF35" s="199"/>
-      <c r="CG35" s="199"/>
-      <c r="CH35" s="199"/>
-      <c r="CI35" s="199"/>
-      <c r="CJ35" s="199"/>
-      <c r="CK35" s="199"/>
-      <c r="CL35" s="236"/>
+      <c r="BX35" s="225"/>
+      <c r="BY35" s="241"/>
+      <c r="BZ35" s="242"/>
+      <c r="CA35" s="242"/>
+      <c r="CB35" s="242"/>
+      <c r="CC35" s="242"/>
+      <c r="CD35" s="242"/>
+      <c r="CE35" s="242"/>
+      <c r="CF35" s="242"/>
+      <c r="CG35" s="242"/>
+      <c r="CH35" s="242"/>
+      <c r="CI35" s="242"/>
+      <c r="CJ35" s="242"/>
+      <c r="CK35" s="242"/>
+      <c r="CL35" s="268"/>
     </row>
-    <row r="36" ht="15.75" spans="1:90">
+    <row r="36" spans="1:90">
       <c r="A36" s="1"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="114"/>
-      <c r="AE36" s="115"/>
-      <c r="AF36" s="115"/>
-      <c r="AG36" s="115"/>
-      <c r="AH36" s="115"/>
-      <c r="AI36" s="138"/>
-      <c r="AJ36" s="139"/>
-      <c r="AK36" s="139"/>
-      <c r="AL36" s="139"/>
-      <c r="AM36" s="139"/>
-      <c r="AN36" s="139"/>
-      <c r="AO36" s="139"/>
-      <c r="AP36" s="139"/>
-      <c r="AQ36" s="152"/>
-      <c r="AR36" s="139"/>
-      <c r="AS36" s="139"/>
-      <c r="AT36" s="139"/>
-      <c r="AU36" s="139"/>
-      <c r="AV36" s="139"/>
-      <c r="AW36" s="139"/>
-      <c r="AX36" s="139"/>
-      <c r="AY36" s="139"/>
-      <c r="AZ36" s="139"/>
-      <c r="BA36" s="139"/>
-      <c r="BB36" s="139"/>
-      <c r="BC36" s="139"/>
-      <c r="BD36" s="139"/>
-      <c r="BE36" s="139"/>
-      <c r="BF36" s="139"/>
-      <c r="BG36" s="139"/>
-      <c r="BH36" s="139"/>
-      <c r="BI36" s="139"/>
-      <c r="BJ36" s="139"/>
-      <c r="BK36" s="139"/>
-      <c r="BL36" s="139"/>
-      <c r="BM36" s="139"/>
-      <c r="BN36" s="139"/>
-      <c r="BO36" s="139"/>
-      <c r="BP36" s="139"/>
-      <c r="BQ36" s="139"/>
-      <c r="BR36" s="139"/>
-      <c r="BS36" s="186"/>
-      <c r="BT36" s="42"/>
-      <c r="BU36" s="40"/>
-      <c r="BV36" s="40"/>
-      <c r="BW36" s="40"/>
-      <c r="BX36" s="224"/>
-      <c r="BY36" s="225"/>
-      <c r="BZ36" s="226"/>
-      <c r="CA36" s="226"/>
-      <c r="CB36" s="226"/>
-      <c r="CC36" s="226"/>
-      <c r="CD36" s="226"/>
-      <c r="CE36" s="226"/>
-      <c r="CF36" s="226"/>
-      <c r="CG36" s="226"/>
-      <c r="CH36" s="226"/>
-      <c r="CI36" s="226"/>
-      <c r="CJ36" s="226"/>
-      <c r="CK36" s="226"/>
-      <c r="CL36" s="248"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="123"/>
+      <c r="AA36" s="124"/>
+      <c r="AB36" s="124"/>
+      <c r="AC36" s="125"/>
+      <c r="AD36" s="115"/>
+      <c r="AE36" s="116"/>
+      <c r="AF36" s="116"/>
+      <c r="AG36" s="116"/>
+      <c r="AH36" s="116"/>
+      <c r="AI36" s="150"/>
+      <c r="AJ36" s="151"/>
+      <c r="AK36" s="151"/>
+      <c r="AL36" s="151"/>
+      <c r="AM36" s="151"/>
+      <c r="AN36" s="151"/>
+      <c r="AO36" s="151"/>
+      <c r="AP36" s="151"/>
+      <c r="AQ36" s="168"/>
+      <c r="AR36" s="151"/>
+      <c r="AS36" s="151"/>
+      <c r="AT36" s="151"/>
+      <c r="AU36" s="151"/>
+      <c r="AV36" s="151"/>
+      <c r="AW36" s="151"/>
+      <c r="AX36" s="151"/>
+      <c r="AY36" s="151"/>
+      <c r="AZ36" s="151"/>
+      <c r="BA36" s="151"/>
+      <c r="BB36" s="151"/>
+      <c r="BC36" s="151"/>
+      <c r="BD36" s="151"/>
+      <c r="BE36" s="151"/>
+      <c r="BF36" s="151"/>
+      <c r="BG36" s="151"/>
+      <c r="BH36" s="151"/>
+      <c r="BI36" s="151"/>
+      <c r="BJ36" s="151"/>
+      <c r="BK36" s="151"/>
+      <c r="BL36" s="151"/>
+      <c r="BM36" s="151"/>
+      <c r="BN36" s="151"/>
+      <c r="BO36" s="151"/>
+      <c r="BP36" s="151"/>
+      <c r="BQ36" s="151"/>
+      <c r="BR36" s="151"/>
+      <c r="BS36" s="203"/>
+      <c r="BT36" s="38"/>
+      <c r="BU36" s="8"/>
+      <c r="BV36" s="8"/>
+      <c r="BW36" s="8"/>
+      <c r="BX36" s="225"/>
+      <c r="BY36" s="243"/>
+      <c r="BZ36" s="244"/>
+      <c r="CA36" s="244"/>
+      <c r="CB36" s="244"/>
+      <c r="CC36" s="244"/>
+      <c r="CD36" s="244"/>
+      <c r="CE36" s="244"/>
+      <c r="CF36" s="244"/>
+      <c r="CG36" s="244"/>
+      <c r="CH36" s="244"/>
+      <c r="CI36" s="244"/>
+      <c r="CJ36" s="244"/>
+      <c r="CK36" s="244"/>
+      <c r="CL36" s="269"/>
     </row>
-    <row r="37" ht="16.5" spans="1:90">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="118"/>
-      <c r="AD37" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE37" s="119"/>
-      <c r="AF37" s="119"/>
-      <c r="AG37" s="119"/>
-      <c r="AH37" s="119"/>
-      <c r="AI37" s="119"/>
-      <c r="AJ37" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK37" s="140"/>
-      <c r="AL37" s="140"/>
-      <c r="AM37" s="140"/>
-      <c r="AN37" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO37" s="140"/>
-      <c r="AP37" s="140"/>
-      <c r="AQ37" s="153"/>
-      <c r="AR37" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS37" s="140"/>
-      <c r="AT37" s="140"/>
-      <c r="AU37" s="140"/>
-      <c r="AV37" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW37" s="140"/>
-      <c r="AX37" s="140"/>
-      <c r="AY37" s="140"/>
-      <c r="AZ37" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA37" s="140"/>
-      <c r="BB37" s="140"/>
-      <c r="BC37" s="140"/>
-      <c r="BD37" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE37" s="140"/>
-      <c r="BF37" s="140"/>
-      <c r="BG37" s="140"/>
-      <c r="BH37" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI37" s="140"/>
-      <c r="BJ37" s="140"/>
-      <c r="BK37" s="140"/>
-      <c r="BL37" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM37" s="140"/>
-      <c r="BN37" s="140"/>
-      <c r="BO37" s="140"/>
-      <c r="BP37" s="153" t="s">
-        <v>41</v>
-      </c>
-      <c r="BQ37" s="187"/>
-      <c r="BR37" s="187"/>
-      <c r="BS37" s="188"/>
-      <c r="BT37" s="189"/>
-      <c r="BU37" s="227"/>
-      <c r="BV37" s="227"/>
-      <c r="BW37" s="227"/>
-      <c r="BX37" s="228"/>
-      <c r="BY37" s="16"/>
-      <c r="BZ37" s="17"/>
-      <c r="CA37" s="17"/>
-      <c r="CB37" s="17"/>
-      <c r="CC37" s="17"/>
-      <c r="CD37" s="17"/>
-      <c r="CE37" s="17"/>
-      <c r="CF37" s="17"/>
-      <c r="CG37" s="17"/>
-      <c r="CH37" s="17"/>
-      <c r="CI37" s="17"/>
-      <c r="CJ37" s="17"/>
-      <c r="CK37" s="17"/>
-      <c r="CL37" s="249"/>
+    <row r="37" spans="1:90">
+      <c r="A37" s="1"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="126"/>
+      <c r="AA37" s="126"/>
+      <c r="AB37" s="126"/>
+      <c r="AC37" s="126"/>
+      <c r="AD37" s="115"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="116"/>
+      <c r="AH37" s="116"/>
+      <c r="AI37" s="150"/>
+      <c r="AJ37" s="151"/>
+      <c r="AK37" s="151"/>
+      <c r="AL37" s="151"/>
+      <c r="AM37" s="151"/>
+      <c r="AN37" s="151"/>
+      <c r="AO37" s="151"/>
+      <c r="AP37" s="151"/>
+      <c r="AQ37" s="168"/>
+      <c r="AR37" s="151"/>
+      <c r="AS37" s="151"/>
+      <c r="AT37" s="151"/>
+      <c r="AU37" s="151"/>
+      <c r="AV37" s="151"/>
+      <c r="AW37" s="151"/>
+      <c r="AX37" s="151"/>
+      <c r="AY37" s="151"/>
+      <c r="AZ37" s="151"/>
+      <c r="BA37" s="151"/>
+      <c r="BB37" s="151"/>
+      <c r="BC37" s="151"/>
+      <c r="BD37" s="151"/>
+      <c r="BE37" s="151"/>
+      <c r="BF37" s="151"/>
+      <c r="BG37" s="151"/>
+      <c r="BH37" s="151"/>
+      <c r="BI37" s="151"/>
+      <c r="BJ37" s="151"/>
+      <c r="BK37" s="151"/>
+      <c r="BL37" s="151"/>
+      <c r="BM37" s="151"/>
+      <c r="BN37" s="151"/>
+      <c r="BO37" s="151"/>
+      <c r="BP37" s="151"/>
+      <c r="BQ37" s="151"/>
+      <c r="BR37" s="151"/>
+      <c r="BS37" s="203"/>
+      <c r="BT37" s="38"/>
+      <c r="BU37" s="8"/>
+      <c r="BV37" s="8"/>
+      <c r="BW37" s="8"/>
+      <c r="BX37" s="225"/>
+      <c r="BY37" s="217"/>
+      <c r="BZ37" s="218"/>
+      <c r="CA37" s="218"/>
+      <c r="CB37" s="218"/>
+      <c r="CC37" s="218"/>
+      <c r="CD37" s="218"/>
+      <c r="CE37" s="218"/>
+      <c r="CF37" s="218"/>
+      <c r="CG37" s="218"/>
+      <c r="CH37" s="218"/>
+      <c r="CI37" s="218"/>
+      <c r="CJ37" s="218"/>
+      <c r="CK37" s="218"/>
+      <c r="CL37" s="257"/>
     </row>
-    <row r="38" ht="15.75" spans="1:90">
+    <row r="38" spans="1:90">
       <c r="A38" s="1"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="46"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="46"/>
-      <c r="AL38" s="46"/>
-      <c r="AM38" s="46"/>
-      <c r="AN38" s="46"/>
-      <c r="AO38" s="46"/>
-      <c r="AP38" s="46"/>
-      <c r="AQ38" s="46"/>
-      <c r="AR38" s="46"/>
-      <c r="AS38" s="46"/>
-      <c r="AT38" s="46"/>
-      <c r="AU38" s="46"/>
-      <c r="AV38" s="46"/>
-      <c r="AW38" s="46"/>
-      <c r="AX38" s="46"/>
-      <c r="AY38" s="46"/>
-      <c r="AZ38" s="46"/>
-      <c r="BA38" s="46"/>
-      <c r="BB38" s="46"/>
-      <c r="BC38" s="46"/>
-      <c r="BD38" s="46"/>
-      <c r="BE38" s="46"/>
-      <c r="BF38" s="46"/>
-      <c r="BG38" s="46"/>
-      <c r="BH38" s="46"/>
-      <c r="BI38" s="46"/>
-      <c r="BJ38" s="46"/>
-      <c r="BK38" s="46"/>
-      <c r="BL38" s="46"/>
-      <c r="BM38" s="46"/>
-      <c r="BN38" s="46"/>
-      <c r="BO38" s="46"/>
-      <c r="BP38" s="46"/>
-      <c r="BQ38" s="46"/>
-      <c r="BR38" s="46"/>
-      <c r="BS38" s="46"/>
-      <c r="BT38" s="46"/>
-      <c r="BU38" s="46"/>
-      <c r="BV38" s="46"/>
-      <c r="BW38" s="46"/>
-      <c r="BX38" s="46"/>
-      <c r="BY38" s="46"/>
-      <c r="BZ38" s="46"/>
-      <c r="CA38" s="46"/>
-      <c r="CB38" s="46"/>
-      <c r="CC38" s="46"/>
-      <c r="CD38" s="46"/>
-      <c r="CE38" s="46"/>
-      <c r="CF38" s="46"/>
-      <c r="CG38" s="46"/>
-      <c r="CH38" s="46"/>
-      <c r="CI38" s="46"/>
-      <c r="CJ38" s="1"/>
-      <c r="CK38" s="1"/>
-      <c r="CL38" s="1"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="126"/>
+      <c r="AA38" s="126"/>
+      <c r="AB38" s="126"/>
+      <c r="AC38" s="126"/>
+      <c r="AD38" s="115"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="116"/>
+      <c r="AG38" s="116"/>
+      <c r="AH38" s="116"/>
+      <c r="AI38" s="150"/>
+      <c r="AJ38" s="151"/>
+      <c r="AK38" s="151"/>
+      <c r="AL38" s="151"/>
+      <c r="AM38" s="151"/>
+      <c r="AN38" s="151"/>
+      <c r="AO38" s="151"/>
+      <c r="AP38" s="151"/>
+      <c r="AQ38" s="168"/>
+      <c r="AR38" s="151"/>
+      <c r="AS38" s="151"/>
+      <c r="AT38" s="151"/>
+      <c r="AU38" s="151"/>
+      <c r="AV38" s="151"/>
+      <c r="AW38" s="151"/>
+      <c r="AX38" s="151"/>
+      <c r="AY38" s="151"/>
+      <c r="AZ38" s="151"/>
+      <c r="BA38" s="151"/>
+      <c r="BB38" s="151"/>
+      <c r="BC38" s="151"/>
+      <c r="BD38" s="151"/>
+      <c r="BE38" s="151"/>
+      <c r="BF38" s="151"/>
+      <c r="BG38" s="151"/>
+      <c r="BH38" s="151"/>
+      <c r="BI38" s="151"/>
+      <c r="BJ38" s="151"/>
+      <c r="BK38" s="151"/>
+      <c r="BL38" s="151"/>
+      <c r="BM38" s="151"/>
+      <c r="BN38" s="151"/>
+      <c r="BO38" s="151"/>
+      <c r="BP38" s="151"/>
+      <c r="BQ38" s="151"/>
+      <c r="BR38" s="151"/>
+      <c r="BS38" s="203"/>
+      <c r="BT38" s="38"/>
+      <c r="BU38" s="8"/>
+      <c r="BV38" s="8"/>
+      <c r="BW38" s="8"/>
+      <c r="BX38" s="225"/>
+      <c r="BY38" s="217"/>
+      <c r="BZ38" s="218"/>
+      <c r="CA38" s="218"/>
+      <c r="CB38" s="218"/>
+      <c r="CC38" s="218"/>
+      <c r="CD38" s="218"/>
+      <c r="CE38" s="218"/>
+      <c r="CF38" s="218"/>
+      <c r="CG38" s="218"/>
+      <c r="CH38" s="218"/>
+      <c r="CI38" s="218"/>
+      <c r="CJ38" s="218"/>
+      <c r="CK38" s="218"/>
+      <c r="CL38" s="257"/>
     </row>
-    <row r="39" ht="15.75" spans="1:90">
+    <row r="39" spans="1:90">
       <c r="A39" s="1"/>
-      <c r="B39" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="64"/>
-      <c r="AB39" s="64"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="120"/>
-      <c r="AF39" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG39" s="64"/>
-      <c r="AH39" s="64"/>
-      <c r="AI39" s="64"/>
-      <c r="AJ39" s="64"/>
-      <c r="AK39" s="64"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="64"/>
-      <c r="AO39" s="64"/>
-      <c r="AP39" s="64"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="64"/>
-      <c r="AS39" s="64"/>
-      <c r="AT39" s="64"/>
-      <c r="AU39" s="64"/>
-      <c r="AV39" s="120"/>
-      <c r="AW39" s="166"/>
-      <c r="AX39" s="167"/>
-      <c r="AY39" s="167"/>
-      <c r="AZ39" s="167"/>
-      <c r="BA39" s="167"/>
-      <c r="BB39" s="167"/>
-      <c r="BC39" s="167"/>
-      <c r="BD39" s="167"/>
-      <c r="BE39" s="167"/>
-      <c r="BF39" s="167"/>
-      <c r="BG39" s="167"/>
-      <c r="BH39" s="167"/>
-      <c r="BI39" s="167"/>
-      <c r="BJ39" s="167"/>
-      <c r="BK39" s="167"/>
-      <c r="BL39" s="167"/>
-      <c r="BM39" s="167"/>
-      <c r="BN39" s="167"/>
-      <c r="BO39" s="167"/>
-      <c r="BP39" s="167"/>
-      <c r="BQ39" s="167"/>
-      <c r="BR39" s="167"/>
-      <c r="BS39" s="167"/>
-      <c r="BT39" s="167"/>
-      <c r="BU39" s="167"/>
-      <c r="BV39" s="167"/>
-      <c r="BW39" s="167"/>
-      <c r="BX39" s="167"/>
-      <c r="BY39" s="167"/>
-      <c r="BZ39" s="167"/>
-      <c r="CA39" s="167"/>
-      <c r="CB39" s="167"/>
-      <c r="CC39" s="167"/>
-      <c r="CD39" s="167"/>
-      <c r="CE39" s="167"/>
-      <c r="CF39" s="167"/>
-      <c r="CG39" s="167"/>
-      <c r="CH39" s="167"/>
-      <c r="CI39" s="229"/>
-      <c r="CJ39" s="229"/>
-      <c r="CK39" s="229"/>
-      <c r="CL39" s="229"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="126"/>
+      <c r="AA39" s="126"/>
+      <c r="AB39" s="126"/>
+      <c r="AC39" s="126"/>
+      <c r="AD39" s="115"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="116"/>
+      <c r="AG39" s="116"/>
+      <c r="AH39" s="116"/>
+      <c r="AI39" s="150"/>
+      <c r="AJ39" s="151"/>
+      <c r="AK39" s="151"/>
+      <c r="AL39" s="151"/>
+      <c r="AM39" s="151"/>
+      <c r="AN39" s="151"/>
+      <c r="AO39" s="151"/>
+      <c r="AP39" s="151"/>
+      <c r="AQ39" s="168"/>
+      <c r="AR39" s="151"/>
+      <c r="AS39" s="151"/>
+      <c r="AT39" s="151"/>
+      <c r="AU39" s="151"/>
+      <c r="AV39" s="151"/>
+      <c r="AW39" s="151"/>
+      <c r="AX39" s="151"/>
+      <c r="AY39" s="151"/>
+      <c r="AZ39" s="151"/>
+      <c r="BA39" s="151"/>
+      <c r="BB39" s="151"/>
+      <c r="BC39" s="151"/>
+      <c r="BD39" s="151"/>
+      <c r="BE39" s="151"/>
+      <c r="BF39" s="151"/>
+      <c r="BG39" s="151"/>
+      <c r="BH39" s="151"/>
+      <c r="BI39" s="151"/>
+      <c r="BJ39" s="151"/>
+      <c r="BK39" s="151"/>
+      <c r="BL39" s="151"/>
+      <c r="BM39" s="151"/>
+      <c r="BN39" s="151"/>
+      <c r="BO39" s="151"/>
+      <c r="BP39" s="151"/>
+      <c r="BQ39" s="151"/>
+      <c r="BR39" s="151"/>
+      <c r="BS39" s="203"/>
+      <c r="BT39" s="38"/>
+      <c r="BU39" s="8"/>
+      <c r="BV39" s="8"/>
+      <c r="BW39" s="8"/>
+      <c r="BX39" s="225"/>
+      <c r="BY39" s="217"/>
+      <c r="BZ39" s="218"/>
+      <c r="CA39" s="218"/>
+      <c r="CB39" s="218"/>
+      <c r="CC39" s="218"/>
+      <c r="CD39" s="218"/>
+      <c r="CE39" s="218"/>
+      <c r="CF39" s="218"/>
+      <c r="CG39" s="218"/>
+      <c r="CH39" s="218"/>
+      <c r="CI39" s="218"/>
+      <c r="CJ39" s="218"/>
+      <c r="CK39" s="218"/>
+      <c r="CL39" s="257"/>
     </row>
-    <row r="40" ht="15.75" spans="1:90">
+    <row r="40" spans="1:90">
       <c r="A40" s="1"/>
-      <c r="B40" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="84"/>
-      <c r="W40" s="85"/>
-      <c r="X40" s="85"/>
-      <c r="Y40" s="85"/>
-      <c r="Z40" s="85"/>
-      <c r="AA40" s="85"/>
-      <c r="AB40" s="85"/>
-      <c r="AC40" s="85"/>
-      <c r="AD40" s="85"/>
-      <c r="AE40" s="85"/>
-      <c r="AF40" s="121"/>
-      <c r="AG40" s="141"/>
-      <c r="AH40" s="141"/>
-      <c r="AI40" s="141"/>
-      <c r="AJ40" s="141"/>
-      <c r="AK40" s="141"/>
-      <c r="AL40" s="141"/>
-      <c r="AM40" s="141"/>
-      <c r="AN40" s="141"/>
-      <c r="AO40" s="141"/>
-      <c r="AP40" s="141"/>
-      <c r="AQ40" s="141"/>
-      <c r="AR40" s="141"/>
-      <c r="AS40" s="141"/>
-      <c r="AT40" s="141"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
-      <c r="BC40" s="1"/>
-      <c r="BD40" s="1"/>
-      <c r="BE40" s="1"/>
-      <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
-      <c r="BH40" s="1"/>
-      <c r="BI40" s="1"/>
-      <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
-      <c r="BL40" s="1"/>
-      <c r="BM40" s="1"/>
-      <c r="BN40" s="1"/>
-      <c r="BO40" s="1"/>
-      <c r="BP40" s="1"/>
-      <c r="BQ40" s="1"/>
-      <c r="BR40" s="1"/>
-      <c r="BS40" s="1"/>
-      <c r="BT40" s="1"/>
-      <c r="BU40" s="1"/>
-      <c r="BV40" s="1"/>
-      <c r="BW40" s="1"/>
-      <c r="BX40" s="1"/>
-      <c r="BY40" s="1"/>
-      <c r="BZ40" s="1"/>
-      <c r="CA40" s="1"/>
-      <c r="CB40" s="1"/>
-      <c r="CC40" s="1"/>
-      <c r="CD40" s="1"/>
-      <c r="CE40" s="1"/>
-      <c r="CF40" s="1"/>
-      <c r="CG40" s="1"/>
-      <c r="CH40" s="1"/>
-      <c r="CI40" s="1"/>
-      <c r="CJ40" s="1"/>
-      <c r="CK40" s="1"/>
-      <c r="CL40" s="1"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="126"/>
+      <c r="AA40" s="126"/>
+      <c r="AB40" s="126"/>
+      <c r="AC40" s="126"/>
+      <c r="AD40" s="115"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="116"/>
+      <c r="AG40" s="116"/>
+      <c r="AH40" s="116"/>
+      <c r="AI40" s="150"/>
+      <c r="AJ40" s="151"/>
+      <c r="AK40" s="151"/>
+      <c r="AL40" s="151"/>
+      <c r="AM40" s="151"/>
+      <c r="AN40" s="151"/>
+      <c r="AO40" s="151"/>
+      <c r="AP40" s="151"/>
+      <c r="AQ40" s="168"/>
+      <c r="AR40" s="151"/>
+      <c r="AS40" s="151"/>
+      <c r="AT40" s="151"/>
+      <c r="AU40" s="151"/>
+      <c r="AV40" s="151"/>
+      <c r="AW40" s="151"/>
+      <c r="AX40" s="151"/>
+      <c r="AY40" s="151"/>
+      <c r="AZ40" s="151"/>
+      <c r="BA40" s="151"/>
+      <c r="BB40" s="151"/>
+      <c r="BC40" s="151"/>
+      <c r="BD40" s="151"/>
+      <c r="BE40" s="151"/>
+      <c r="BF40" s="151"/>
+      <c r="BG40" s="151"/>
+      <c r="BH40" s="151"/>
+      <c r="BI40" s="151"/>
+      <c r="BJ40" s="151"/>
+      <c r="BK40" s="151"/>
+      <c r="BL40" s="151"/>
+      <c r="BM40" s="151"/>
+      <c r="BN40" s="151"/>
+      <c r="BO40" s="151"/>
+      <c r="BP40" s="151"/>
+      <c r="BQ40" s="151"/>
+      <c r="BR40" s="151"/>
+      <c r="BS40" s="203"/>
+      <c r="BT40" s="38"/>
+      <c r="BU40" s="8"/>
+      <c r="BV40" s="8"/>
+      <c r="BW40" s="8"/>
+      <c r="BX40" s="225"/>
+      <c r="BY40" s="217"/>
+      <c r="BZ40" s="218"/>
+      <c r="CA40" s="218"/>
+      <c r="CB40" s="218"/>
+      <c r="CC40" s="218"/>
+      <c r="CD40" s="218"/>
+      <c r="CE40" s="218"/>
+      <c r="CF40" s="218"/>
+      <c r="CG40" s="218"/>
+      <c r="CH40" s="218"/>
+      <c r="CI40" s="218"/>
+      <c r="CJ40" s="218"/>
+      <c r="CK40" s="218"/>
+      <c r="CL40" s="257"/>
     </row>
     <row r="41" spans="1:90">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
-      <c r="BI41" s="1"/>
-      <c r="BJ41" s="1"/>
-      <c r="BK41" s="1"/>
-      <c r="BL41" s="1"/>
-      <c r="BM41" s="1"/>
-      <c r="BN41" s="1"/>
-      <c r="BO41" s="1"/>
-      <c r="BP41" s="1"/>
-      <c r="BQ41" s="1"/>
-      <c r="BR41" s="1"/>
-      <c r="BS41" s="1"/>
-      <c r="BT41" s="1"/>
-      <c r="BU41" s="1"/>
-      <c r="BV41" s="1"/>
-      <c r="BW41" s="1"/>
-      <c r="BX41" s="1"/>
-      <c r="BY41" s="1"/>
-      <c r="BZ41" s="1"/>
-      <c r="CA41" s="8"/>
-      <c r="CB41" s="8"/>
-      <c r="CC41" s="8"/>
-      <c r="CD41" s="8" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="126"/>
+      <c r="AA41" s="126"/>
+      <c r="AB41" s="126"/>
+      <c r="AC41" s="126"/>
+      <c r="AD41" s="115"/>
+      <c r="AE41" s="116"/>
+      <c r="AF41" s="116"/>
+      <c r="AG41" s="116"/>
+      <c r="AH41" s="116"/>
+      <c r="AI41" s="150"/>
+      <c r="AJ41" s="151"/>
+      <c r="AK41" s="151"/>
+      <c r="AL41" s="151"/>
+      <c r="AM41" s="151"/>
+      <c r="AN41" s="151"/>
+      <c r="AO41" s="151"/>
+      <c r="AP41" s="151"/>
+      <c r="AQ41" s="168"/>
+      <c r="AR41" s="151"/>
+      <c r="AS41" s="151"/>
+      <c r="AT41" s="151"/>
+      <c r="AU41" s="151"/>
+      <c r="AV41" s="151"/>
+      <c r="AW41" s="151"/>
+      <c r="AX41" s="151"/>
+      <c r="AY41" s="151"/>
+      <c r="AZ41" s="151"/>
+      <c r="BA41" s="151"/>
+      <c r="BB41" s="151"/>
+      <c r="BC41" s="151"/>
+      <c r="BD41" s="151"/>
+      <c r="BE41" s="151"/>
+      <c r="BF41" s="151"/>
+      <c r="BG41" s="151"/>
+      <c r="BH41" s="151"/>
+      <c r="BI41" s="151"/>
+      <c r="BJ41" s="151"/>
+      <c r="BK41" s="151"/>
+      <c r="BL41" s="151"/>
+      <c r="BM41" s="151"/>
+      <c r="BN41" s="151"/>
+      <c r="BO41" s="151"/>
+      <c r="BP41" s="151"/>
+      <c r="BQ41" s="151"/>
+      <c r="BR41" s="151"/>
+      <c r="BS41" s="203"/>
+      <c r="BT41" s="38"/>
+      <c r="BU41" s="8"/>
+      <c r="BV41" s="8"/>
+      <c r="BW41" s="8"/>
+      <c r="BX41" s="225"/>
+      <c r="BY41" s="217"/>
+      <c r="BZ41" s="218"/>
+      <c r="CA41" s="218"/>
+      <c r="CB41" s="218"/>
+      <c r="CC41" s="218"/>
+      <c r="CD41" s="218"/>
+      <c r="CE41" s="218"/>
+      <c r="CF41" s="218"/>
+      <c r="CG41" s="218"/>
+      <c r="CH41" s="218"/>
+      <c r="CI41" s="218"/>
+      <c r="CJ41" s="218"/>
+      <c r="CK41" s="218"/>
+      <c r="CL41" s="257"/>
+    </row>
+    <row r="42" spans="1:90">
+      <c r="A42" s="1"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="126"/>
+      <c r="AA42" s="126"/>
+      <c r="AB42" s="126"/>
+      <c r="AC42" s="126"/>
+      <c r="AD42" s="115"/>
+      <c r="AE42" s="116"/>
+      <c r="AF42" s="116"/>
+      <c r="AG42" s="116"/>
+      <c r="AH42" s="116"/>
+      <c r="AI42" s="150"/>
+      <c r="AJ42" s="151"/>
+      <c r="AK42" s="151"/>
+      <c r="AL42" s="151"/>
+      <c r="AM42" s="151"/>
+      <c r="AN42" s="151"/>
+      <c r="AO42" s="151"/>
+      <c r="AP42" s="151"/>
+      <c r="AQ42" s="168"/>
+      <c r="AR42" s="151"/>
+      <c r="AS42" s="151"/>
+      <c r="AT42" s="151"/>
+      <c r="AU42" s="151"/>
+      <c r="AV42" s="151"/>
+      <c r="AW42" s="151"/>
+      <c r="AX42" s="151"/>
+      <c r="AY42" s="151"/>
+      <c r="AZ42" s="151"/>
+      <c r="BA42" s="151"/>
+      <c r="BB42" s="151"/>
+      <c r="BC42" s="151"/>
+      <c r="BD42" s="151"/>
+      <c r="BE42" s="151"/>
+      <c r="BF42" s="151"/>
+      <c r="BG42" s="151"/>
+      <c r="BH42" s="151"/>
+      <c r="BI42" s="151"/>
+      <c r="BJ42" s="151"/>
+      <c r="BK42" s="151"/>
+      <c r="BL42" s="151"/>
+      <c r="BM42" s="151"/>
+      <c r="BN42" s="151"/>
+      <c r="BO42" s="151"/>
+      <c r="BP42" s="151"/>
+      <c r="BQ42" s="151"/>
+      <c r="BR42" s="151"/>
+      <c r="BS42" s="203"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="8"/>
+      <c r="BV42" s="8"/>
+      <c r="BW42" s="8"/>
+      <c r="BX42" s="225"/>
+      <c r="BY42" s="217"/>
+      <c r="BZ42" s="218"/>
+      <c r="CA42" s="218"/>
+      <c r="CB42" s="218"/>
+      <c r="CC42" s="218"/>
+      <c r="CD42" s="218"/>
+      <c r="CE42" s="218"/>
+      <c r="CF42" s="218"/>
+      <c r="CG42" s="218"/>
+      <c r="CH42" s="218"/>
+      <c r="CI42" s="218"/>
+      <c r="CJ42" s="218"/>
+      <c r="CK42" s="218"/>
+      <c r="CL42" s="257"/>
+    </row>
+    <row r="43" ht="15.75" spans="1:90">
+      <c r="A43" s="1"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="127"/>
+      <c r="AA43" s="127"/>
+      <c r="AB43" s="127"/>
+      <c r="AC43" s="127"/>
+      <c r="AD43" s="128"/>
+      <c r="AE43" s="129"/>
+      <c r="AF43" s="129"/>
+      <c r="AG43" s="129"/>
+      <c r="AH43" s="129"/>
+      <c r="AI43" s="156"/>
+      <c r="AJ43" s="157"/>
+      <c r="AK43" s="157"/>
+      <c r="AL43" s="157"/>
+      <c r="AM43" s="157"/>
+      <c r="AN43" s="157"/>
+      <c r="AO43" s="157"/>
+      <c r="AP43" s="157"/>
+      <c r="AQ43" s="170"/>
+      <c r="AR43" s="157"/>
+      <c r="AS43" s="157"/>
+      <c r="AT43" s="157"/>
+      <c r="AU43" s="157"/>
+      <c r="AV43" s="157"/>
+      <c r="AW43" s="157"/>
+      <c r="AX43" s="157"/>
+      <c r="AY43" s="157"/>
+      <c r="AZ43" s="157"/>
+      <c r="BA43" s="157"/>
+      <c r="BB43" s="157"/>
+      <c r="BC43" s="157"/>
+      <c r="BD43" s="157"/>
+      <c r="BE43" s="157"/>
+      <c r="BF43" s="157"/>
+      <c r="BG43" s="157"/>
+      <c r="BH43" s="157"/>
+      <c r="BI43" s="157"/>
+      <c r="BJ43" s="157"/>
+      <c r="BK43" s="157"/>
+      <c r="BL43" s="157"/>
+      <c r="BM43" s="157"/>
+      <c r="BN43" s="157"/>
+      <c r="BO43" s="157"/>
+      <c r="BP43" s="157"/>
+      <c r="BQ43" s="157"/>
+      <c r="BR43" s="157"/>
+      <c r="BS43" s="205"/>
+      <c r="BT43" s="47"/>
+      <c r="BU43" s="45"/>
+      <c r="BV43" s="45"/>
+      <c r="BW43" s="45"/>
+      <c r="BX43" s="245"/>
+      <c r="BY43" s="246"/>
+      <c r="BZ43" s="247"/>
+      <c r="CA43" s="247"/>
+      <c r="CB43" s="247"/>
+      <c r="CC43" s="247"/>
+      <c r="CD43" s="247"/>
+      <c r="CE43" s="247"/>
+      <c r="CF43" s="247"/>
+      <c r="CG43" s="247"/>
+      <c r="CH43" s="247"/>
+      <c r="CI43" s="247"/>
+      <c r="CJ43" s="247"/>
+      <c r="CK43" s="247"/>
+      <c r="CL43" s="270"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:90">
+      <c r="A44" s="48"/>
+      <c r="B44" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="130"/>
+      <c r="AA44" s="131"/>
+      <c r="AB44" s="131"/>
+      <c r="AC44" s="132"/>
+      <c r="AD44" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE44" s="133"/>
+      <c r="AF44" s="133"/>
+      <c r="AG44" s="133"/>
+      <c r="AH44" s="133"/>
+      <c r="AI44" s="133"/>
+      <c r="AJ44" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK44" s="158"/>
+      <c r="AL44" s="158"/>
+      <c r="AM44" s="158"/>
+      <c r="AN44" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO44" s="158"/>
+      <c r="AP44" s="158"/>
+      <c r="AQ44" s="171"/>
+      <c r="AR44" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS44" s="158"/>
+      <c r="AT44" s="158"/>
+      <c r="AU44" s="158"/>
+      <c r="AV44" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW44" s="158"/>
+      <c r="AX44" s="158"/>
+      <c r="AY44" s="158"/>
+      <c r="AZ44" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA44" s="158"/>
+      <c r="BB44" s="158"/>
+      <c r="BC44" s="158"/>
+      <c r="BD44" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE44" s="158"/>
+      <c r="BF44" s="158"/>
+      <c r="BG44" s="158"/>
+      <c r="BH44" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI44" s="158"/>
+      <c r="BJ44" s="158"/>
+      <c r="BK44" s="158"/>
+      <c r="BL44" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM44" s="158"/>
+      <c r="BN44" s="158"/>
+      <c r="BO44" s="158"/>
+      <c r="BP44" s="171" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ44" s="206"/>
+      <c r="BR44" s="206"/>
+      <c r="BS44" s="207"/>
+      <c r="BT44" s="208"/>
+      <c r="BU44" s="248"/>
+      <c r="BV44" s="248"/>
+      <c r="BW44" s="248"/>
+      <c r="BX44" s="249"/>
+      <c r="BY44" s="16"/>
+      <c r="BZ44" s="17"/>
+      <c r="CA44" s="17"/>
+      <c r="CB44" s="17"/>
+      <c r="CC44" s="17"/>
+      <c r="CD44" s="17"/>
+      <c r="CE44" s="17"/>
+      <c r="CF44" s="17"/>
+      <c r="CG44" s="17"/>
+      <c r="CH44" s="17"/>
+      <c r="CI44" s="17"/>
+      <c r="CJ44" s="17"/>
+      <c r="CK44" s="17"/>
+      <c r="CL44" s="271"/>
+    </row>
+    <row r="45" ht="15.75" spans="1:90">
+      <c r="A45" s="1"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="51"/>
+      <c r="AE45" s="51"/>
+      <c r="AF45" s="51"/>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="51"/>
+      <c r="AJ45" s="51"/>
+      <c r="AK45" s="51"/>
+      <c r="AL45" s="51"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="51"/>
+      <c r="AO45" s="51"/>
+      <c r="AP45" s="51"/>
+      <c r="AQ45" s="51"/>
+      <c r="AR45" s="51"/>
+      <c r="AS45" s="51"/>
+      <c r="AT45" s="51"/>
+      <c r="AU45" s="51"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
+      <c r="BB45" s="51"/>
+      <c r="BC45" s="51"/>
+      <c r="BD45" s="51"/>
+      <c r="BE45" s="51"/>
+      <c r="BF45" s="51"/>
+      <c r="BG45" s="51"/>
+      <c r="BH45" s="51"/>
+      <c r="BI45" s="51"/>
+      <c r="BJ45" s="51"/>
+      <c r="BK45" s="51"/>
+      <c r="BL45" s="51"/>
+      <c r="BM45" s="51"/>
+      <c r="BN45" s="51"/>
+      <c r="BO45" s="51"/>
+      <c r="BP45" s="51"/>
+      <c r="BQ45" s="51"/>
+      <c r="BR45" s="51"/>
+      <c r="BS45" s="51"/>
+      <c r="BT45" s="51"/>
+      <c r="BU45" s="51"/>
+      <c r="BV45" s="51"/>
+      <c r="BW45" s="51"/>
+      <c r="BX45" s="51"/>
+      <c r="BY45" s="51"/>
+      <c r="BZ45" s="51"/>
+      <c r="CA45" s="51"/>
+      <c r="CB45" s="51"/>
+      <c r="CC45" s="51"/>
+      <c r="CD45" s="51"/>
+      <c r="CE45" s="51"/>
+      <c r="CF45" s="51"/>
+      <c r="CG45" s="51"/>
+      <c r="CH45" s="51"/>
+      <c r="CI45" s="51"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+    </row>
+    <row r="46" ht="15.75" spans="1:90">
+      <c r="A46" s="1"/>
+      <c r="B46" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="69"/>
+      <c r="Y46" s="69"/>
+      <c r="Z46" s="69"/>
+      <c r="AA46" s="69"/>
+      <c r="AB46" s="69"/>
+      <c r="AC46" s="69"/>
+      <c r="AD46" s="69"/>
+      <c r="AE46" s="134"/>
+      <c r="AF46" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG46" s="69"/>
+      <c r="AH46" s="69"/>
+      <c r="AI46" s="69"/>
+      <c r="AJ46" s="69"/>
+      <c r="AK46" s="69"/>
+      <c r="AL46" s="69"/>
+      <c r="AM46" s="69"/>
+      <c r="AN46" s="69"/>
+      <c r="AO46" s="69"/>
+      <c r="AP46" s="69"/>
+      <c r="AQ46" s="69"/>
+      <c r="AR46" s="69"/>
+      <c r="AS46" s="69"/>
+      <c r="AT46" s="69"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="134"/>
+      <c r="AW46" s="184"/>
+      <c r="AX46" s="185"/>
+      <c r="AY46" s="185"/>
+      <c r="AZ46" s="185"/>
+      <c r="BA46" s="185"/>
+      <c r="BB46" s="185"/>
+      <c r="BC46" s="185"/>
+      <c r="BD46" s="185"/>
+      <c r="BE46" s="185"/>
+      <c r="BF46" s="185"/>
+      <c r="BG46" s="185"/>
+      <c r="BH46" s="185"/>
+      <c r="BI46" s="185"/>
+      <c r="BJ46" s="185"/>
+      <c r="BK46" s="185"/>
+      <c r="BL46" s="185"/>
+      <c r="BM46" s="185"/>
+      <c r="BN46" s="185"/>
+      <c r="BO46" s="185"/>
+      <c r="BP46" s="185"/>
+      <c r="BQ46" s="185"/>
+      <c r="BR46" s="185"/>
+      <c r="BS46" s="185"/>
+      <c r="BT46" s="185"/>
+      <c r="BU46" s="185"/>
+      <c r="BV46" s="185"/>
+      <c r="BW46" s="185"/>
+      <c r="BX46" s="185"/>
+      <c r="BY46" s="185"/>
+      <c r="BZ46" s="185"/>
+      <c r="CA46" s="185"/>
+      <c r="CB46" s="185"/>
+      <c r="CC46" s="185"/>
+      <c r="CD46" s="185"/>
+      <c r="CE46" s="185"/>
+      <c r="CF46" s="185"/>
+      <c r="CG46" s="185"/>
+      <c r="CH46" s="185"/>
+      <c r="CI46" s="250"/>
+      <c r="CJ46" s="250"/>
+      <c r="CK46" s="250"/>
+      <c r="CL46" s="250"/>
+    </row>
+    <row r="47" ht="15.75" spans="1:90">
+      <c r="A47" s="1"/>
+      <c r="B47" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="93"/>
+      <c r="X47" s="93"/>
+      <c r="Y47" s="93"/>
+      <c r="Z47" s="93"/>
+      <c r="AA47" s="93"/>
+      <c r="AB47" s="93"/>
+      <c r="AC47" s="93"/>
+      <c r="AD47" s="93"/>
+      <c r="AE47" s="93"/>
+      <c r="AF47" s="135"/>
+      <c r="AG47" s="159"/>
+      <c r="AH47" s="159"/>
+      <c r="AI47" s="159"/>
+      <c r="AJ47" s="159"/>
+      <c r="AK47" s="159"/>
+      <c r="AL47" s="159"/>
+      <c r="AM47" s="159"/>
+      <c r="AN47" s="159"/>
+      <c r="AO47" s="159"/>
+      <c r="AP47" s="159"/>
+      <c r="AQ47" s="159"/>
+      <c r="AR47" s="159"/>
+      <c r="AS47" s="159"/>
+      <c r="AT47" s="159"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+    </row>
+    <row r="48" spans="1:90">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="8"/>
+      <c r="CB48" s="8"/>
+      <c r="CC48" s="8"/>
+      <c r="CD48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="CE41" s="8"/>
-      <c r="CF41" s="8"/>
-      <c r="CG41" s="8"/>
-      <c r="CH41" s="8"/>
-      <c r="CI41" s="8"/>
-      <c r="CJ41" s="8" t="s">
+      <c r="CE48" s="8"/>
+      <c r="CF48" s="8"/>
+      <c r="CG48" s="8"/>
+      <c r="CH48" s="8"/>
+      <c r="CI48" s="8"/>
+      <c r="CJ48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="CK41" s="8"/>
-      <c r="CL41" s="8"/>
+      <c r="CK48" s="8"/>
+      <c r="CL48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="580">
+  <mergeCells count="720">
     <mergeCell ref="CI1:CL1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="AK2:BV2"/>
@@ -10640,9 +11376,15 @@
     <mergeCell ref="BP36:BS36"/>
     <mergeCell ref="BT36:BX36"/>
     <mergeCell ref="BY36:CL36"/>
-    <mergeCell ref="B37:Y37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="V37:Y37"/>
     <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="AD37:AI37"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AI37"/>
     <mergeCell ref="AJ37:AM37"/>
     <mergeCell ref="AN37:AQ37"/>
     <mergeCell ref="AR37:AU37"/>
@@ -10654,18 +11396,152 @@
     <mergeCell ref="BP37:BS37"/>
     <mergeCell ref="BT37:BX37"/>
     <mergeCell ref="BY37:CL37"/>
-    <mergeCell ref="B39:N39"/>
-    <mergeCell ref="O39:U39"/>
-    <mergeCell ref="V39:AE39"/>
-    <mergeCell ref="AF39:AL39"/>
-    <mergeCell ref="AM39:AV39"/>
-    <mergeCell ref="B40:N40"/>
-    <mergeCell ref="O40:U40"/>
-    <mergeCell ref="V40:AE40"/>
-    <mergeCell ref="CA41:CC41"/>
-    <mergeCell ref="CD41:CF41"/>
-    <mergeCell ref="CG41:CI41"/>
-    <mergeCell ref="CJ41:CL41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AI38"/>
+    <mergeCell ref="AJ38:AM38"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AR38:AU38"/>
+    <mergeCell ref="AV38:AY38"/>
+    <mergeCell ref="AZ38:BC38"/>
+    <mergeCell ref="BD38:BG38"/>
+    <mergeCell ref="BH38:BK38"/>
+    <mergeCell ref="BL38:BO38"/>
+    <mergeCell ref="BP38:BS38"/>
+    <mergeCell ref="BT38:BX38"/>
+    <mergeCell ref="BY38:CL38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="AJ39:AM39"/>
+    <mergeCell ref="AN39:AQ39"/>
+    <mergeCell ref="AR39:AU39"/>
+    <mergeCell ref="AV39:AY39"/>
+    <mergeCell ref="AZ39:BC39"/>
+    <mergeCell ref="BD39:BG39"/>
+    <mergeCell ref="BH39:BK39"/>
+    <mergeCell ref="BL39:BO39"/>
+    <mergeCell ref="BP39:BS39"/>
+    <mergeCell ref="BT39:BX39"/>
+    <mergeCell ref="BY39:CL39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="Z40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AJ40:AM40"/>
+    <mergeCell ref="AN40:AQ40"/>
+    <mergeCell ref="AR40:AU40"/>
+    <mergeCell ref="AV40:AY40"/>
+    <mergeCell ref="AZ40:BC40"/>
+    <mergeCell ref="BD40:BG40"/>
+    <mergeCell ref="BH40:BK40"/>
+    <mergeCell ref="BL40:BO40"/>
+    <mergeCell ref="BP40:BS40"/>
+    <mergeCell ref="BT40:BX40"/>
+    <mergeCell ref="BY40:CL40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="V41:Y41"/>
+    <mergeCell ref="Z41:AC41"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="AN41:AQ41"/>
+    <mergeCell ref="AR41:AU41"/>
+    <mergeCell ref="AV41:AY41"/>
+    <mergeCell ref="AZ41:BC41"/>
+    <mergeCell ref="BD41:BG41"/>
+    <mergeCell ref="BH41:BK41"/>
+    <mergeCell ref="BL41:BO41"/>
+    <mergeCell ref="BP41:BS41"/>
+    <mergeCell ref="BT41:BX41"/>
+    <mergeCell ref="BY41:CL41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="Z42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AJ42:AM42"/>
+    <mergeCell ref="AN42:AQ42"/>
+    <mergeCell ref="AR42:AU42"/>
+    <mergeCell ref="AV42:AY42"/>
+    <mergeCell ref="AZ42:BC42"/>
+    <mergeCell ref="BD42:BG42"/>
+    <mergeCell ref="BH42:BK42"/>
+    <mergeCell ref="BL42:BO42"/>
+    <mergeCell ref="BP42:BS42"/>
+    <mergeCell ref="BT42:BX42"/>
+    <mergeCell ref="BY42:CL42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="Z43:AC43"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="AJ43:AM43"/>
+    <mergeCell ref="AN43:AQ43"/>
+    <mergeCell ref="AR43:AU43"/>
+    <mergeCell ref="AV43:AY43"/>
+    <mergeCell ref="AZ43:BC43"/>
+    <mergeCell ref="BD43:BG43"/>
+    <mergeCell ref="BH43:BK43"/>
+    <mergeCell ref="BL43:BO43"/>
+    <mergeCell ref="BP43:BS43"/>
+    <mergeCell ref="BT43:BX43"/>
+    <mergeCell ref="BY43:CL43"/>
+    <mergeCell ref="B44:Y44"/>
+    <mergeCell ref="Z44:AC44"/>
+    <mergeCell ref="AD44:AI44"/>
+    <mergeCell ref="AJ44:AM44"/>
+    <mergeCell ref="AN44:AQ44"/>
+    <mergeCell ref="AR44:AU44"/>
+    <mergeCell ref="AV44:AY44"/>
+    <mergeCell ref="AZ44:BC44"/>
+    <mergeCell ref="BD44:BG44"/>
+    <mergeCell ref="BH44:BK44"/>
+    <mergeCell ref="BL44:BO44"/>
+    <mergeCell ref="BP44:BS44"/>
+    <mergeCell ref="BT44:BX44"/>
+    <mergeCell ref="BY44:CL44"/>
+    <mergeCell ref="B46:N46"/>
+    <mergeCell ref="O46:U46"/>
+    <mergeCell ref="V46:AE46"/>
+    <mergeCell ref="AF46:AL46"/>
+    <mergeCell ref="AM46:AV46"/>
+    <mergeCell ref="B47:N47"/>
+    <mergeCell ref="O47:U47"/>
+    <mergeCell ref="V47:AE47"/>
+    <mergeCell ref="CA48:CC48"/>
+    <mergeCell ref="CD48:CF48"/>
+    <mergeCell ref="CG48:CI48"/>
+    <mergeCell ref="CJ48:CL48"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
